--- a/Genes_of_interest_DARKRED_excel.xlsx
+++ b/Genes_of_interest_DARKRED_excel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fe7511e01eadebe/Academic/R_coding/ResearchProject1/CardiomyopathyGroup2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9068CC01-A397-419B-80DE-4D6BD73F7B02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:40009_{9068CC01-A397-419B-80DE-4D6BD73F7B02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EB139963-C518-4F1B-9F53-0679E115D0AF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genes_of_interest_DARKRED" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -901,8 +912,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,17 +1049,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1235,7 +1236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1352,25 +1353,81 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="double">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1419,20 +1476,27 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1478,7 +1542,106 @@
     <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGray">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1787,167 +1950,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" customWidth="1"/>
-    <col min="8" max="8" width="84.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="14" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="19.88671875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="11.77734375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="8.21875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="12" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="4.33203125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="15.77734375" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="8.44140625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="15.77734375" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="3" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="0" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="15.77734375" style="4"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="9" max="9" width="84.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="15" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="19.88671875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.21875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="12" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="4.33203125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="15.77734375" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="8.44140625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5546875" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.77734375" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="3" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:37" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AK1" s="4" t="s">
-        <v>291</v>
-      </c>
     </row>
-    <row r="2" spans="1:37" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:37" s="3" customFormat="1" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="b">
+        <f>AND(C2&gt;10,D2&gt;0.05)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="6">
+      <c r="C2" s="8">
         <v>20</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="8">
         <v>0.27396673084946299</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -1956,4098 +2121,4271 @@
       <c r="G2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="8">
         <v>1.5384615384615301</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="8">
         <v>1850</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="8">
         <v>0.64999999999999902</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="8">
         <v>0.384210526315789</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="4">
         <v>3</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="4">
         <v>10.35</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="4">
         <v>0.97307692307692295</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AA2" s="4">
         <v>5</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AB2" s="4">
         <v>4.7946619999999998</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AC2" s="4">
         <v>2.1441789999999998</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AD2" s="4">
         <v>2.2418450000000001</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AE2" s="4">
         <v>4.5562459999999998</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AF2" s="4">
         <v>3.2363460000000002</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AG2" s="4">
         <v>2.1693479999999998</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AH2" s="4">
         <v>2.8817620000000002</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AI2" s="4">
         <v>2.7725689999999998</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AJ2" s="3">
         <v>0.99068999999999996</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AK2" s="3">
         <v>5</v>
-      </c>
-      <c r="AK2" s="10" t="b">
-        <f>AND(B2&gt;15,C2&gt;0.1,D2="true")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="b">
+        <f>AND(C3&gt;10,D3&gt;0.05)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="8">
         <v>18</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="8">
         <v>0.206672082575939</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J3">
+      <c r="K3" s="7">
         <v>1.6923076923076901</v>
       </c>
-      <c r="K3">
+      <c r="L3" s="7">
         <v>1874</v>
       </c>
-      <c r="L3">
+      <c r="M3" s="7">
         <v>0.59090909090909005</v>
       </c>
-      <c r="M3">
+      <c r="N3" s="7">
         <v>0.39215686274509798</v>
       </c>
-      <c r="N3">
+      <c r="O3" s="7">
         <v>3</v>
       </c>
-      <c r="O3">
+      <c r="P3" s="7">
         <v>10.3333333333333</v>
       </c>
-      <c r="P3">
+      <c r="Q3" s="7">
         <v>0.96538461538461495</v>
       </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="R3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7">
         <v>0.31313131313131298</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z3">
+      <c r="AA3" s="7">
         <v>2.2245810000000001</v>
       </c>
-      <c r="AA3">
+      <c r="AB3" s="7">
         <v>2.3431799999999998</v>
       </c>
-      <c r="AB3">
+      <c r="AC3" s="7">
         <v>1.6464510000000001</v>
       </c>
-      <c r="AC3">
+      <c r="AD3" s="7">
         <v>1.667767</v>
       </c>
-      <c r="AD3">
+      <c r="AE3" s="7">
         <v>3.706782</v>
       </c>
-      <c r="AE3">
+      <c r="AF3" s="7">
         <v>1.5101089999999999</v>
       </c>
-      <c r="AF3">
+      <c r="AG3" s="7">
         <v>1.7788870000000001</v>
       </c>
-      <c r="AG3">
+      <c r="AH3" s="7">
         <v>1.7353989999999999</v>
       </c>
-      <c r="AH3">
+      <c r="AI3" s="7">
         <v>3.6587839999999998</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3" s="7">
         <v>1.6875</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3" s="7">
         <v>5</v>
-      </c>
-      <c r="AK3" s="4" t="b">
-        <f>AND(B3&gt;15,C3&gt;0.1,D3="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="b">
+        <f>AND(C4&gt;10,D4&gt;0.05)</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="2">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="2">
         <v>9.0465937860645496E-2</v>
       </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="2">
         <v>1.7179487179487101</v>
       </c>
-      <c r="K4">
+      <c r="L4" s="2">
         <v>1096</v>
       </c>
-      <c r="L4">
+      <c r="M4" s="2">
         <v>0.58208955223880599</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="2">
         <v>0.53333333333333299</v>
       </c>
-      <c r="N4">
+      <c r="O4" s="2">
         <v>3</v>
       </c>
-      <c r="O4">
+      <c r="P4" s="2">
         <v>12</v>
       </c>
-      <c r="P4">
+      <c r="Q4" s="2">
         <v>0.96410256410256401</v>
       </c>
-      <c r="Q4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="R4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="Z4">
+      <c r="AA4" s="2">
         <v>2.3863319999999999</v>
       </c>
-      <c r="AA4">
+      <c r="AB4" s="2">
         <v>4.6599190000000004</v>
       </c>
-      <c r="AB4">
+      <c r="AC4" s="2">
         <v>1.908358</v>
       </c>
-      <c r="AC4">
+      <c r="AD4" s="2">
         <v>1.960653</v>
       </c>
-      <c r="AD4">
+      <c r="AE4" s="2">
         <v>2.5709019999999998</v>
       </c>
-      <c r="AE4">
+      <c r="AF4" s="2">
         <v>1.6408529999999999</v>
       </c>
-      <c r="AF4">
+      <c r="AG4" s="2">
         <v>1.94225</v>
       </c>
-      <c r="AG4">
+      <c r="AH4" s="2">
         <v>1.7668440000000001</v>
       </c>
-      <c r="AH4">
+      <c r="AI4" s="2">
         <v>3.0713530000000002</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4" s="2">
         <v>1.093753</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4" s="2">
         <v>5</v>
-      </c>
-      <c r="AK4" s="4" t="b">
-        <f>AND(B4&gt;15,C4&gt;0.1,D4="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="b">
+        <f>AND(C5&gt;10,D5&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="2">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="2">
         <v>4.5390482315676502E-2</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J5">
+      <c r="K5" s="2">
         <v>1.7692307692307601</v>
       </c>
-      <c r="K5">
+      <c r="L5" s="2">
         <v>836</v>
       </c>
-      <c r="L5">
+      <c r="M5" s="2">
         <v>0.56521739130434701</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="2">
         <v>0.63809523809523805</v>
       </c>
-      <c r="N5">
+      <c r="O5" s="2">
         <v>3</v>
       </c>
-      <c r="O5">
+      <c r="P5" s="2">
         <v>13.2</v>
       </c>
-      <c r="P5">
+      <c r="Q5" s="2">
         <v>0.96153846153846101</v>
       </c>
-      <c r="Q5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="R5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2">
         <v>0.4</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="Z5">
+      <c r="AA5" s="2">
         <v>1.9274709999999999</v>
       </c>
-      <c r="AA5">
+      <c r="AB5" s="2">
         <v>1.982839</v>
       </c>
-      <c r="AB5">
+      <c r="AC5" s="2">
         <v>1.9670810000000001</v>
       </c>
-      <c r="AC5">
+      <c r="AD5" s="2">
         <v>1.824173</v>
       </c>
-      <c r="AD5">
+      <c r="AE5" s="2">
         <v>3.0692819999999998</v>
       </c>
-      <c r="AE5">
+      <c r="AF5" s="2">
         <v>1.502875</v>
       </c>
-      <c r="AF5">
+      <c r="AG5" s="2">
         <v>1.83846</v>
       </c>
-      <c r="AG5">
+      <c r="AH5" s="2">
         <v>2.1186280000000002</v>
       </c>
-      <c r="AH5">
+      <c r="AI5" s="2">
         <v>2.1412900000000001</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5" s="2">
         <v>0.75</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5" s="2">
         <v>5</v>
-      </c>
-      <c r="AK5" s="4" t="b">
-        <f>AND(B5&gt;15,C5&gt;0.1,D5="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="b">
+        <f>AND(C6&gt;10,D6&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="2">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="2">
         <v>4.24717961227545E-2</v>
       </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="2">
         <v>1.89743589743589</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="2">
         <v>550</v>
       </c>
-      <c r="L6">
+      <c r="M6" s="2">
         <v>0.52702702702702697</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="2">
         <v>0.580952380952381</v>
       </c>
-      <c r="N6">
+      <c r="O6" s="2">
         <v>3</v>
       </c>
-      <c r="O6">
+      <c r="P6" s="2">
         <v>12.066666666666601</v>
       </c>
-      <c r="P6">
+      <c r="Q6" s="2">
         <v>0.95512820512820495</v>
       </c>
-      <c r="Q6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="R6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2">
         <v>0.43095238095238098</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="Z6">
+      <c r="AA6" s="2">
         <v>2.938329</v>
       </c>
-      <c r="AA6">
+      <c r="AB6" s="2">
         <v>3.318336</v>
       </c>
-      <c r="AB6">
+      <c r="AC6" s="2">
         <v>2.9840520000000001</v>
       </c>
-      <c r="AC6">
+      <c r="AD6" s="2">
         <v>3.0544220000000002</v>
       </c>
-      <c r="AD6">
+      <c r="AE6" s="2">
         <v>4.8090339999999996</v>
       </c>
-      <c r="AE6">
+      <c r="AF6" s="2">
         <v>2.524035</v>
       </c>
-      <c r="AF6">
+      <c r="AG6" s="2">
         <v>3.0735709999999998</v>
       </c>
-      <c r="AG6">
+      <c r="AH6" s="2">
         <v>2.948156</v>
       </c>
-      <c r="AH6">
+      <c r="AI6" s="2">
         <v>3.4914459999999998</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6" s="2">
         <v>1.8335440000000001</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6" s="2">
         <v>5</v>
-      </c>
-      <c r="AK6" s="4" t="b">
-        <f>AND(B6&gt;15,C6&gt;0.1,D6="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="14" t="b">
+        <f>AND(C7&gt;10,D7&gt;0.05)</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="2">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="2">
         <v>6.40584927729142E-2</v>
       </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J7">
+      <c r="K7" s="2">
         <v>1.7435897435897401</v>
       </c>
-      <c r="K7">
+      <c r="L7" s="2">
         <v>922</v>
       </c>
-      <c r="L7">
+      <c r="M7" s="2">
         <v>0.57352941176470495</v>
       </c>
-      <c r="M7">
+      <c r="N7" s="2">
         <v>0.60952380952380902</v>
       </c>
-      <c r="N7">
+      <c r="O7" s="2">
         <v>3</v>
       </c>
-      <c r="O7">
+      <c r="P7" s="2">
         <v>12.8</v>
       </c>
-      <c r="P7">
+      <c r="Q7" s="2">
         <v>0.96282051282051195</v>
       </c>
-      <c r="Q7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="R7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="Z7">
+      <c r="AA7" s="2">
         <v>1.4235230000000001</v>
       </c>
-      <c r="AA7">
+      <c r="AB7" s="2">
         <v>1.791223</v>
       </c>
-      <c r="AB7">
+      <c r="AC7" s="2">
         <v>1.989195</v>
       </c>
-      <c r="AC7">
+      <c r="AD7" s="2">
         <v>1.310135</v>
       </c>
-      <c r="AD7">
+      <c r="AE7" s="2">
         <v>1.935397</v>
       </c>
-      <c r="AE7">
+      <c r="AF7" s="2">
         <v>1.374107</v>
       </c>
-      <c r="AF7">
+      <c r="AG7" s="2">
         <v>1.4442820000000001</v>
       </c>
-      <c r="AG7">
+      <c r="AH7" s="2">
         <v>1.4696130000000001</v>
       </c>
-      <c r="AH7">
+      <c r="AI7" s="2">
         <v>1.7837609999999999</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2">
         <v>5</v>
-      </c>
-      <c r="AK7" s="4" t="b">
-        <f>AND(B7&gt;15,C7&gt;0.1,D7="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="b">
+        <f>AND(C8&gt;10,D8&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="2">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="2">
         <v>3.7009306772435503E-2</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J8">
+      <c r="K8" s="2">
         <v>1.7692307692307601</v>
       </c>
-      <c r="K8">
+      <c r="L8" s="2">
         <v>828</v>
       </c>
-      <c r="L8">
+      <c r="M8" s="2">
         <v>0.56521739130434701</v>
       </c>
-      <c r="M8">
+      <c r="N8" s="2">
         <v>0.65714285714285703</v>
       </c>
-      <c r="N8">
+      <c r="O8" s="2">
         <v>3</v>
       </c>
-      <c r="O8">
+      <c r="P8" s="2">
         <v>13.066666666666601</v>
       </c>
-      <c r="P8">
+      <c r="Q8" s="2">
         <v>0.96153846153846101</v>
       </c>
-      <c r="Q8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="R8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Z8">
+      <c r="AA8" s="2">
         <v>1.778764</v>
       </c>
-      <c r="AA8">
+      <c r="AB8" s="2">
         <v>1.8056270000000001</v>
       </c>
-      <c r="AB8">
+      <c r="AC8" s="2">
         <v>1.186439</v>
       </c>
-      <c r="AC8">
+      <c r="AD8" s="2">
         <v>1.4321550000000001</v>
       </c>
-      <c r="AD8">
+      <c r="AE8" s="2">
         <v>3.6310579999999999</v>
       </c>
-      <c r="AE8">
+      <c r="AF8" s="2">
         <v>0.88914899999999997</v>
       </c>
-      <c r="AF8">
+      <c r="AG8" s="2">
         <v>1.63283</v>
       </c>
-      <c r="AG8">
+      <c r="AH8" s="2">
         <v>1.7382820000000001</v>
       </c>
-      <c r="AH8">
+      <c r="AI8" s="2">
         <v>2.2192889999999998</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8" s="2">
         <v>0.54152599999999995</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8" s="2">
         <v>5</v>
-      </c>
-      <c r="AK8" s="4" t="b">
-        <f>AND(B8&gt;15,C8&gt;0.1,D8="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="14" t="b">
+        <f>AND(C9&gt;10,D9&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="2">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="2">
         <v>4.1325064397801203E-2</v>
       </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J9">
+      <c r="K9" s="2">
         <v>1.87179487179487</v>
       </c>
-      <c r="K9">
+      <c r="L9" s="2">
         <v>586</v>
       </c>
-      <c r="L9">
+      <c r="M9" s="2">
         <v>0.534246575342465</v>
       </c>
-      <c r="M9">
+      <c r="N9" s="2">
         <v>0.64835164835164805</v>
       </c>
-      <c r="N9">
+      <c r="O9" s="2">
         <v>3</v>
       </c>
-      <c r="O9">
+      <c r="P9" s="2">
         <v>12.9285714285714</v>
       </c>
-      <c r="P9">
+      <c r="Q9" s="2">
         <v>0.95641025641025601</v>
       </c>
-      <c r="Q9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="R9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2">
         <v>0.43095238095238098</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="Z9">
+      <c r="AA9" s="2">
         <v>1.340465</v>
       </c>
-      <c r="AA9">
+      <c r="AB9" s="2">
         <v>4.3177950000000003</v>
       </c>
-      <c r="AB9">
+      <c r="AC9" s="2">
         <v>1.936531</v>
       </c>
-      <c r="AC9">
+      <c r="AD9" s="2">
         <v>4.2427910000000004</v>
       </c>
-      <c r="AD9">
+      <c r="AE9" s="2">
         <v>2.9195570000000002</v>
       </c>
-      <c r="AE9">
+      <c r="AF9" s="2">
         <v>1.539169</v>
       </c>
-      <c r="AF9">
+      <c r="AG9" s="2">
         <v>1.3787830000000001</v>
       </c>
-      <c r="AG9">
+      <c r="AH9" s="2">
         <v>1.481744</v>
       </c>
-      <c r="AH9">
+      <c r="AI9" s="2">
         <v>2.0562100000000001</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2">
         <v>5</v>
-      </c>
-      <c r="AK9" s="4" t="b">
-        <f>AND(B9&gt;15,C9&gt;0.1,D9="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="b">
+        <f>AND(C10&gt;10,D10&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="2">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="2">
         <v>1.9230215936670701E-2</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J10">
+      <c r="K10" s="2">
         <v>1.84615384615384</v>
       </c>
-      <c r="K10">
+      <c r="L10" s="2">
         <v>512</v>
       </c>
-      <c r="L10">
+      <c r="M10" s="2">
         <v>0.54166666666666596</v>
       </c>
-      <c r="M10">
+      <c r="N10" s="2">
         <v>0.75641025641025605</v>
       </c>
-      <c r="N10">
+      <c r="O10" s="2">
         <v>3</v>
       </c>
-      <c r="O10">
+      <c r="P10" s="2">
         <v>13.846153846153801</v>
       </c>
-      <c r="P10">
+      <c r="Q10" s="2">
         <v>0.95769230769230695</v>
       </c>
-      <c r="Q10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="R10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2">
         <v>0.43269230769230699</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Z10">
+      <c r="AA10" s="2">
         <v>1.4139600000000001</v>
       </c>
-      <c r="AA10">
+      <c r="AB10" s="2">
         <v>4.3111280000000001</v>
       </c>
-      <c r="AB10">
+      <c r="AC10" s="2">
         <v>2.4311430000000001</v>
       </c>
-      <c r="AC10">
+      <c r="AD10" s="2">
         <v>1.331356</v>
       </c>
-      <c r="AD10">
+      <c r="AE10" s="2">
         <v>2.714728</v>
       </c>
-      <c r="AE10">
+      <c r="AF10" s="2">
         <v>1.8936710000000001</v>
       </c>
-      <c r="AF10">
+      <c r="AG10" s="2">
         <v>1.5233939999999999</v>
       </c>
-      <c r="AG10">
+      <c r="AH10" s="2">
         <v>1.543296</v>
       </c>
-      <c r="AH10">
+      <c r="AI10" s="2">
         <v>1.61538</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2">
         <v>5</v>
-      </c>
-      <c r="AK10" s="4" t="b">
-        <f>AND(B10&gt;15,C10&gt;0.1,D10="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="b">
+        <f>AND(C11&gt;10,D11&gt;0.05)</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="2">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="2">
         <v>5.9212155113891503E-2</v>
       </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J11">
+      <c r="K11" s="2">
         <v>2.07692307692307</v>
       </c>
-      <c r="K11">
+      <c r="L11" s="2">
         <v>1348</v>
       </c>
-      <c r="L11">
+      <c r="M11" s="2">
         <v>0.48148148148148101</v>
       </c>
-      <c r="M11">
+      <c r="N11" s="2">
         <v>0.62121212121212099</v>
       </c>
-      <c r="N11">
+      <c r="O11" s="2">
         <v>4</v>
       </c>
-      <c r="O11">
+      <c r="P11" s="2">
         <v>11.8333333333333</v>
       </c>
-      <c r="P11">
+      <c r="Q11" s="2">
         <v>0.94615384615384601</v>
       </c>
-      <c r="Q11" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="R11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Z11">
+      <c r="AA11" s="2">
         <v>1.354579</v>
       </c>
-      <c r="AA11">
+      <c r="AB11" s="2">
         <v>1.3677809999999999</v>
       </c>
-      <c r="AB11">
+      <c r="AC11" s="2">
         <v>1.4387270000000001</v>
       </c>
-      <c r="AC11">
+      <c r="AD11" s="2">
         <v>5</v>
       </c>
-      <c r="AD11">
+      <c r="AE11" s="2">
         <v>2.9837099999999999</v>
       </c>
-      <c r="AE11">
+      <c r="AF11" s="2">
         <v>5</v>
       </c>
-      <c r="AF11">
+      <c r="AG11" s="2">
         <v>5</v>
       </c>
-      <c r="AG11">
+      <c r="AH11" s="2">
         <v>1.470113</v>
       </c>
-      <c r="AH11">
+      <c r="AI11" s="2">
         <v>1.77007</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2">
         <v>5</v>
-      </c>
-      <c r="AK11" s="4" t="b">
-        <f>AND(B11&gt;15,C11&gt;0.1,D11="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="b">
+        <f>AND(C12&gt;10,D12&gt;0.05)</f>
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="2">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="2">
         <v>5.9212155113891503E-2</v>
       </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J12">
+      <c r="K12" s="2">
         <v>2.07692307692307</v>
       </c>
-      <c r="K12">
+      <c r="L12" s="2">
         <v>1348</v>
       </c>
-      <c r="L12">
+      <c r="M12" s="2">
         <v>0.48148148148148101</v>
       </c>
-      <c r="M12">
+      <c r="N12" s="2">
         <v>0.62121212121212099</v>
       </c>
-      <c r="N12">
+      <c r="O12" s="2">
         <v>4</v>
       </c>
-      <c r="O12">
+      <c r="P12" s="2">
         <v>11.8333333333333</v>
       </c>
-      <c r="P12">
+      <c r="Q12" s="2">
         <v>0.94615384615384601</v>
       </c>
-      <c r="Q12" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="R12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="Z12">
+      <c r="AA12" s="2">
         <v>1.5607500000000001</v>
       </c>
-      <c r="AA12">
+      <c r="AB12" s="2">
         <v>1.4533799999999999</v>
       </c>
-      <c r="AB12">
+      <c r="AC12" s="2">
         <v>1.796929</v>
       </c>
-      <c r="AC12">
+      <c r="AD12" s="2">
         <v>5</v>
       </c>
-      <c r="AD12">
+      <c r="AE12" s="2">
         <v>4.7069640000000001</v>
       </c>
-      <c r="AE12">
+      <c r="AF12" s="2">
         <v>5</v>
       </c>
-      <c r="AF12">
+      <c r="AG12" s="2">
         <v>5</v>
       </c>
-      <c r="AG12">
+      <c r="AH12" s="2">
         <v>1.4515150000000001</v>
       </c>
-      <c r="AH12">
+      <c r="AI12" s="2">
         <v>1.9301109999999999</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2">
         <v>5</v>
-      </c>
-      <c r="AK12" s="4" t="b">
-        <f>AND(B12&gt;15,C12&gt;0.1,D12="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="14" t="b">
+        <f>AND(C13&gt;10,D13&gt;0.05)</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="2">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="2">
         <v>9.6706452912667704E-2</v>
       </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J13">
+      <c r="K13" s="2">
         <v>1.92307692307692</v>
       </c>
-      <c r="K13">
+      <c r="L13" s="2">
         <v>1046</v>
       </c>
-      <c r="L13">
+      <c r="M13" s="2">
         <v>0.52</v>
       </c>
-      <c r="M13">
+      <c r="N13" s="2">
         <v>0.472727272727272</v>
       </c>
-      <c r="N13">
+      <c r="O13" s="2">
         <v>3</v>
       </c>
-      <c r="O13">
+      <c r="P13" s="2">
         <v>11.545454545454501</v>
       </c>
-      <c r="P13">
+      <c r="Q13" s="2">
         <v>0.95384615384615301</v>
       </c>
-      <c r="Q13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="R13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Z13">
+      <c r="AA13" s="2">
         <v>2.6044049999999999</v>
       </c>
-      <c r="AA13">
+      <c r="AB13" s="2">
         <v>2.7889889999999999</v>
       </c>
-      <c r="AB13">
+      <c r="AC13" s="2">
         <v>2.3246169999999999</v>
       </c>
-      <c r="AC13">
+      <c r="AD13" s="2">
         <v>2.4383360000000001</v>
       </c>
-      <c r="AD13">
+      <c r="AE13" s="2">
         <v>3.7910780000000002</v>
       </c>
-      <c r="AE13">
+      <c r="AF13" s="2">
         <v>4.4455580000000001</v>
       </c>
-      <c r="AF13">
+      <c r="AG13" s="2">
         <v>2.4920580000000001</v>
       </c>
-      <c r="AG13">
+      <c r="AH13" s="2">
         <v>2.5257369999999999</v>
       </c>
-      <c r="AH13">
+      <c r="AI13" s="2">
         <v>3.1562290000000002</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13" s="2">
         <v>1.340222</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13" s="2">
         <v>4.8227460000000004</v>
       </c>
-      <c r="AK13" s="4" t="b">
-        <f>AND(B13&gt;15,C13&gt;0.1,D13="true")</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:37" s="19" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="b">
+        <f>AND(C14&gt;10,D14&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="18">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="18">
         <v>4.61107453253203E-2</v>
       </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="E14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J14">
+      <c r="K14" s="18">
         <v>2.1282051282051202</v>
       </c>
-      <c r="K14">
+      <c r="L14" s="18">
         <v>1056</v>
       </c>
-      <c r="L14">
+      <c r="M14" s="18">
         <v>0.469879518072289</v>
       </c>
-      <c r="M14">
+      <c r="N14" s="18">
         <v>0.63636363636363602</v>
       </c>
-      <c r="N14">
+      <c r="O14" s="18">
         <v>4</v>
       </c>
-      <c r="O14">
+      <c r="P14" s="18">
         <v>11.636363636363599</v>
       </c>
-      <c r="P14">
+      <c r="Q14" s="18">
         <v>0.94358974358974301</v>
       </c>
-      <c r="Q14" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="R14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="Z14">
+      <c r="AA14" s="18">
         <v>1.2595270000000001</v>
       </c>
-      <c r="AA14">
+      <c r="AB14" s="18">
         <v>1.2389920000000001</v>
       </c>
-      <c r="AB14">
+      <c r="AC14" s="18">
         <v>1.2205360000000001</v>
       </c>
-      <c r="AC14">
+      <c r="AD14" s="18">
         <v>5</v>
       </c>
-      <c r="AD14">
+      <c r="AE14" s="18">
         <v>2.1623190000000001</v>
       </c>
-      <c r="AE14">
+      <c r="AF14" s="18">
         <v>5</v>
       </c>
-      <c r="AF14">
+      <c r="AG14" s="18">
         <v>5</v>
       </c>
-      <c r="AG14">
+      <c r="AH14" s="18">
         <v>1.136201</v>
       </c>
-      <c r="AH14">
+      <c r="AI14" s="18">
         <v>1.4416310000000001</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14" s="18">
         <v>0.46875</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14" s="18">
         <v>5</v>
-      </c>
-      <c r="AK14" s="4" t="b">
-        <f>AND(B14&gt;15,C14&gt;0.1,D14="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="13" t="b">
+        <f>AND(C15&gt;10,D15&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="7">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="7">
         <v>2.19622912923059E-2</v>
       </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="J15">
+      <c r="K15" s="7">
         <v>2.1025641025641</v>
       </c>
-      <c r="K15">
+      <c r="L15" s="7">
         <v>352</v>
       </c>
-      <c r="L15">
+      <c r="M15" s="7">
         <v>0.47560975609756001</v>
       </c>
-      <c r="M15">
+      <c r="N15" s="7">
         <v>0.57777777777777695</v>
       </c>
-      <c r="N15">
+      <c r="O15" s="7">
         <v>4</v>
       </c>
-      <c r="O15">
+      <c r="P15" s="7">
         <v>10.8</v>
       </c>
-      <c r="P15">
+      <c r="Q15" s="7">
         <v>0.94487179487179396</v>
       </c>
-      <c r="Q15" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="R15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="Z15">
+      <c r="AA15" s="7">
         <v>1.675673</v>
       </c>
-      <c r="AA15">
+      <c r="AB15" s="7">
         <v>1.987544</v>
       </c>
-      <c r="AB15">
+      <c r="AC15" s="7">
         <v>1.6704570000000001</v>
       </c>
-      <c r="AC15">
+      <c r="AD15" s="7">
         <v>1.6240049999999999</v>
       </c>
-      <c r="AD15">
+      <c r="AE15" s="7">
         <v>4.4519209999999996</v>
       </c>
-      <c r="AE15">
+      <c r="AF15" s="7">
         <v>1.9077139999999999</v>
       </c>
-      <c r="AF15">
+      <c r="AG15" s="7">
         <v>2.080908</v>
       </c>
-      <c r="AG15">
+      <c r="AH15" s="7">
         <v>1.9152690000000001</v>
       </c>
-      <c r="AH15">
+      <c r="AI15" s="7">
         <v>5</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7">
         <v>5</v>
-      </c>
-      <c r="AK15" s="4" t="b">
-        <f>AND(B15&gt;15,C15&gt;0.1,D15="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="14" t="b">
+        <f>AND(C16&gt;10,D16&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="2">
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="2">
         <v>1.64286379612122E-2</v>
       </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J16">
+      <c r="K16" s="2">
         <v>2.1538461538461502</v>
       </c>
-      <c r="K16">
+      <c r="L16" s="2">
         <v>184</v>
       </c>
-      <c r="L16">
+      <c r="M16" s="2">
         <v>0.46428571428571402</v>
       </c>
-      <c r="M16">
+      <c r="N16" s="2">
         <v>0.57777777777777695</v>
       </c>
-      <c r="N16">
+      <c r="O16" s="2">
         <v>4</v>
       </c>
-      <c r="O16">
+      <c r="P16" s="2">
         <v>10.4</v>
       </c>
-      <c r="P16">
+      <c r="Q16" s="2">
         <v>0.94230769230769196</v>
       </c>
-      <c r="Q16" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="R16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Z16">
+      <c r="AA16" s="2">
         <v>2.3638669999999999</v>
       </c>
-      <c r="AA16">
+      <c r="AB16" s="2">
         <v>4.6757150000000003</v>
       </c>
-      <c r="AB16">
+      <c r="AC16" s="2">
         <v>2.1798190000000002</v>
       </c>
-      <c r="AC16">
+      <c r="AD16" s="2">
         <v>3.9703490000000001</v>
       </c>
-      <c r="AD16">
+      <c r="AE16" s="2">
         <v>4.5745779999999998</v>
       </c>
-      <c r="AE16">
+      <c r="AF16" s="2">
         <v>2.9411040000000002</v>
       </c>
-      <c r="AF16">
+      <c r="AG16" s="2">
         <v>5</v>
       </c>
-      <c r="AG16">
+      <c r="AH16" s="2">
         <v>2.3035160000000001</v>
       </c>
-      <c r="AH16">
+      <c r="AI16" s="2">
         <v>2.6247349999999998</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16" s="2">
         <v>1.0075369999999999</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16" s="2">
         <v>4.4444840000000001</v>
-      </c>
-      <c r="AK16" s="4" t="b">
-        <f>AND(B16&gt;15,C16&gt;0.1,D16="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="14" t="b">
+        <f>AND(C17&gt;10,D17&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B17">
+      <c r="C17" s="2">
         <v>9</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="5">
         <v>1.6869095816464199E-4</v>
       </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J17">
+      <c r="K17" s="2">
         <v>2.1538461538461502</v>
       </c>
-      <c r="K17">
+      <c r="L17" s="2">
         <v>2</v>
       </c>
-      <c r="L17">
+      <c r="M17" s="2">
         <v>0.46428571428571402</v>
       </c>
-      <c r="M17">
+      <c r="N17" s="2">
         <v>0.97222222222222199</v>
       </c>
-      <c r="N17">
+      <c r="O17" s="2">
         <v>4</v>
       </c>
-      <c r="O17">
+      <c r="P17" s="2">
         <v>14.5555555555555</v>
       </c>
-      <c r="P17">
+      <c r="Q17" s="2">
         <v>0.94230769230769196</v>
       </c>
-      <c r="Q17" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="R17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" s="2"/>
+      <c r="W17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2">
         <v>0.58222222222222197</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Z17">
+      <c r="AA17" s="2">
         <v>1.404717</v>
       </c>
-      <c r="AA17">
+      <c r="AB17" s="2">
         <v>1.48169</v>
       </c>
-      <c r="AB17">
+      <c r="AC17" s="2">
         <v>0.90296399999999999</v>
       </c>
-      <c r="AC17">
+      <c r="AD17" s="2">
         <v>4.1742520000000001</v>
       </c>
-      <c r="AD17">
+      <c r="AE17" s="2">
         <v>3.9309090000000002</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2">
         <v>1.190051</v>
       </c>
-      <c r="AG17">
+      <c r="AH17" s="2">
         <v>1.776586</v>
       </c>
-      <c r="AH17">
+      <c r="AI17" s="2">
         <v>1.9500729999999999</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17" s="2">
         <v>0.65625</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17" s="2">
         <v>5</v>
-      </c>
-      <c r="AK17" s="4" t="b">
-        <f>AND(B17&gt;15,C17&gt;0.1,D17="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="14" t="b">
+        <f>AND(C18&gt;10,D18&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B18">
+      <c r="C18" s="2">
         <v>8</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J18">
+      <c r="K18" s="2">
         <v>2.17948717948717</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
         <v>0.45882352941176402</v>
       </c>
-      <c r="M18">
+      <c r="N18" s="2">
         <v>1</v>
       </c>
-      <c r="N18">
+      <c r="O18" s="2">
         <v>4</v>
       </c>
-      <c r="O18">
+      <c r="P18" s="2">
         <v>14.5</v>
       </c>
-      <c r="P18">
+      <c r="Q18" s="2">
         <v>0.94102564102564101</v>
       </c>
-      <c r="Q18" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="R18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Z18">
+      <c r="AA18" s="2">
         <v>1.749396</v>
       </c>
-      <c r="AA18">
+      <c r="AB18" s="2">
         <v>4.3524029999999998</v>
       </c>
-      <c r="AB18">
+      <c r="AC18" s="2">
         <v>1.2830630000000001</v>
       </c>
-      <c r="AC18">
+      <c r="AD18" s="2">
         <v>4.2852790000000001</v>
       </c>
-      <c r="AD18">
+      <c r="AE18" s="2">
         <v>3.6083229999999999</v>
       </c>
-      <c r="AE18">
+      <c r="AF18" s="2">
         <v>1.2164600000000001</v>
       </c>
-      <c r="AF18">
+      <c r="AG18" s="2">
         <v>1.613551</v>
       </c>
-      <c r="AG18">
+      <c r="AH18" s="2">
         <v>1.5168950000000001</v>
       </c>
-      <c r="AH18">
+      <c r="AI18" s="2">
         <v>2.2681939999999998</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18" s="2">
         <v>0.61852499999999999</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18" s="2">
         <v>4.7754300000000001</v>
-      </c>
-      <c r="AK18" s="4" t="b">
-        <f>AND(B18&gt;15,C18&gt;0.1,D18="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="14" t="b">
+        <f>AND(C19&gt;10,D19&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="2">
         <v>7</v>
       </c>
-      <c r="C19">
+      <c r="D19" s="2">
         <v>1.25773911199012E-2</v>
       </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="J19">
+      <c r="K19" s="2">
         <v>2.07692307692307</v>
       </c>
-      <c r="K19">
+      <c r="L19" s="2">
         <v>142</v>
       </c>
-      <c r="L19">
+      <c r="M19" s="2">
         <v>0.48148148148148101</v>
       </c>
-      <c r="M19">
+      <c r="N19" s="2">
         <v>0.71428571428571397</v>
       </c>
-      <c r="N19">
+      <c r="O19" s="2">
         <v>3</v>
       </c>
-      <c r="O19">
+      <c r="P19" s="2">
         <v>13.857142857142801</v>
       </c>
-      <c r="P19">
+      <c r="Q19" s="2">
         <v>0.94615384615384601</v>
       </c>
-      <c r="Q19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="R19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="Z19">
+      <c r="AA19" s="2">
         <v>2.1042160000000001</v>
       </c>
-      <c r="AA19">
+      <c r="AB19" s="2">
         <v>2.4836200000000002</v>
       </c>
-      <c r="AB19">
+      <c r="AC19" s="2">
         <v>1.563496</v>
       </c>
-      <c r="AC19">
+      <c r="AD19" s="2">
         <v>1.597205</v>
       </c>
-      <c r="AD19">
+      <c r="AE19" s="2">
         <v>3.957951</v>
       </c>
-      <c r="AE19">
+      <c r="AF19" s="2">
         <v>1.3577920000000001</v>
       </c>
-      <c r="AF19">
+      <c r="AG19" s="2">
         <v>1.673225</v>
       </c>
-      <c r="AG19">
+      <c r="AH19" s="2">
         <v>1.7391890000000001</v>
       </c>
-      <c r="AH19">
+      <c r="AI19" s="2">
         <v>2.7821940000000001</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2">
         <v>5</v>
-      </c>
-      <c r="AK19" s="4" t="b">
-        <f>AND(B19&gt;15,C19&gt;0.1,D19="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="14" t="b">
+        <f>AND(C20&gt;10,D20&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="2">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="D20" s="2">
         <v>1.2145748987854201E-2</v>
       </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J20">
+      <c r="K20" s="2">
         <v>2.8205128205128198</v>
       </c>
-      <c r="K20">
+      <c r="L20" s="2">
         <v>24</v>
       </c>
-      <c r="L20">
+      <c r="M20" s="2">
         <v>0.354545454545454</v>
       </c>
-      <c r="M20">
+      <c r="N20" s="2">
         <v>0.71428571428571397</v>
       </c>
-      <c r="N20">
+      <c r="O20" s="2">
         <v>5</v>
       </c>
-      <c r="O20">
+      <c r="P20" s="2">
         <v>8</v>
       </c>
-      <c r="P20">
+      <c r="Q20" s="2">
         <v>0.90897435897435896</v>
       </c>
-      <c r="Q20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="R20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Z20">
+      <c r="AA20" s="2">
         <v>3.5119940000000001</v>
       </c>
-      <c r="AA20">
+      <c r="AB20" s="2">
         <v>2.2829609999999998</v>
       </c>
-      <c r="AB20">
+      <c r="AC20" s="2">
         <v>2.0627309999999999</v>
       </c>
-      <c r="AC20">
+      <c r="AD20" s="2">
         <v>5</v>
       </c>
-      <c r="AD20">
+      <c r="AE20" s="2">
         <v>4.4787150000000002</v>
       </c>
-      <c r="AE20">
+      <c r="AF20" s="2">
         <v>5</v>
       </c>
-      <c r="AF20">
+      <c r="AG20" s="2">
         <v>5</v>
       </c>
-      <c r="AG20">
+      <c r="AH20" s="2">
         <v>2.394164</v>
       </c>
-      <c r="AH20">
+      <c r="AI20" s="2">
         <v>4.5881869999999996</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20" s="2">
         <v>0.61905500000000002</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20" s="2">
         <v>4.5137020000000003</v>
-      </c>
-      <c r="AK20" s="4" t="b">
-        <f>AND(B20&gt;15,C20&gt;0.1,D20="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="14" t="b">
+        <f>AND(C21&gt;10,D21&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="2">
         <v>6</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="2">
         <v>3.3197163752088601E-2</v>
       </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J21">
+      <c r="K21" s="2">
         <v>2.5128205128205101</v>
       </c>
-      <c r="K21">
+      <c r="L21" s="2">
         <v>490</v>
       </c>
-      <c r="L21">
+      <c r="M21" s="2">
         <v>0.397959183673469</v>
       </c>
-      <c r="M21">
+      <c r="N21" s="2">
         <v>0.4</v>
       </c>
-      <c r="N21">
+      <c r="O21" s="2">
         <v>4</v>
       </c>
-      <c r="O21">
+      <c r="P21" s="2">
         <v>8.1666666666666607</v>
       </c>
-      <c r="P21">
+      <c r="Q21" s="2">
         <v>0.92435897435897396</v>
       </c>
-      <c r="Q21" t="s">
-        <v>37</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="R21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Z21">
+      <c r="AA21" s="2">
         <v>1.7769820000000001</v>
       </c>
-      <c r="AA21">
+      <c r="AB21" s="2">
         <v>3.0465209999999998</v>
       </c>
-      <c r="AB21">
+      <c r="AC21" s="2">
         <v>1.5987690000000001</v>
       </c>
-      <c r="AC21">
+      <c r="AD21" s="2">
         <v>1.6921470000000001</v>
       </c>
-      <c r="AD21">
+      <c r="AE21" s="2">
         <v>3.3274970000000001</v>
       </c>
-      <c r="AE21">
+      <c r="AF21" s="2">
         <v>1.307245</v>
       </c>
-      <c r="AF21">
+      <c r="AG21" s="2">
         <v>1.7737449999999999</v>
       </c>
-      <c r="AG21">
+      <c r="AH21" s="2">
         <v>1.9105810000000001</v>
       </c>
-      <c r="AH21">
+      <c r="AI21" s="2">
         <v>4.7424270000000002</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21" s="2">
         <v>1.1144590000000001</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21" s="2">
         <v>2.8065020000000001</v>
-      </c>
-      <c r="AK21" s="4" t="b">
-        <f>AND(B21&gt;15,C21&gt;0.1,D21="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="14" t="b">
+        <f>AND(C22&gt;10,D22&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B22">
+      <c r="C22" s="2">
         <v>6</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="5">
         <v>8.4907782276203304E-4</v>
       </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J22">
+      <c r="K22" s="2">
         <v>2.4615384615384599</v>
       </c>
-      <c r="K22">
+      <c r="L22" s="2">
         <v>8</v>
       </c>
-      <c r="L22">
+      <c r="M22" s="2">
         <v>0.40625</v>
       </c>
-      <c r="M22">
+      <c r="N22" s="2">
         <v>0.86666666666666603</v>
       </c>
-      <c r="N22">
+      <c r="O22" s="2">
         <v>4</v>
       </c>
-      <c r="O22">
+      <c r="P22" s="2">
         <v>10.3333333333333</v>
       </c>
-      <c r="P22">
+      <c r="Q22" s="2">
         <v>0.92692307692307696</v>
       </c>
-      <c r="Q22" t="s">
-        <v>37</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="R22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z22">
+      <c r="AA22" s="2">
         <v>1.242289</v>
       </c>
-      <c r="AA22">
+      <c r="AB22" s="2">
         <v>1.9573100000000001</v>
       </c>
-      <c r="AB22">
+      <c r="AC22" s="2">
         <v>1.046978</v>
       </c>
-      <c r="AC22">
+      <c r="AD22" s="2">
         <v>0.91145399999999999</v>
       </c>
-      <c r="AD22">
+      <c r="AE22" s="2">
         <v>5</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2">
         <v>1.4337949999999999</v>
       </c>
-      <c r="AG22">
+      <c r="AH22" s="2">
         <v>1.42249</v>
       </c>
-      <c r="AH22">
+      <c r="AI22" s="2">
         <v>1.4886200000000001</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2">
         <v>1.796448</v>
-      </c>
-      <c r="AK22" s="4" t="b">
-        <f>AND(B22&gt;15,C22&gt;0.1,D22="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="14" t="b">
+        <f>AND(C23&gt;10,D23&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B23">
+      <c r="C23" s="2">
         <v>6</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J23">
+      <c r="K23" s="2">
         <v>2.87179487179487</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
         <v>0.34821428571428498</v>
       </c>
-      <c r="M23">
+      <c r="N23" s="2">
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="O23" s="2">
         <v>5</v>
       </c>
-      <c r="O23">
+      <c r="P23" s="2">
         <v>9</v>
       </c>
-      <c r="P23">
+      <c r="Q23" s="2">
         <v>0.90641025641025597</v>
       </c>
-      <c r="Q23" t="s">
-        <v>37</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="R23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Z23">
+      <c r="AA23" s="2">
         <v>1.0320720000000001</v>
       </c>
-      <c r="AA23">
+      <c r="AB23" s="2">
         <v>1.3373409999999999</v>
       </c>
-      <c r="AB23">
+      <c r="AC23" s="2">
         <v>1.5695239999999999</v>
       </c>
-      <c r="AC23">
+      <c r="AD23" s="2">
         <v>3.5085950000000001</v>
       </c>
-      <c r="AD23">
+      <c r="AE23" s="2">
         <v>2.8772500000000001</v>
       </c>
-      <c r="AE23">
+      <c r="AF23" s="2">
         <v>0.64022599999999996</v>
       </c>
-      <c r="AF23">
+      <c r="AG23" s="2">
         <v>4.2489710000000001</v>
       </c>
-      <c r="AG23">
+      <c r="AH23" s="2">
         <v>1.0461819999999999</v>
       </c>
-      <c r="AH23">
+      <c r="AI23" s="2">
         <v>1.256473</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23" s="2">
         <v>0.328125</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23" s="2">
         <v>5</v>
-      </c>
-      <c r="AK23" s="4" t="b">
-        <f>AND(B23&gt;15,C23&gt;0.1,D23="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="14" t="b">
+        <f>AND(C24&gt;10,D24&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B24">
+      <c r="C24" s="2">
         <v>6</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J24">
+      <c r="K24" s="2">
         <v>2.87179487179487</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
         <v>0.34821428571428498</v>
       </c>
-      <c r="M24">
+      <c r="N24" s="2">
         <v>1</v>
       </c>
-      <c r="N24">
+      <c r="O24" s="2">
         <v>5</v>
       </c>
-      <c r="O24">
+      <c r="P24" s="2">
         <v>9</v>
       </c>
-      <c r="P24">
+      <c r="Q24" s="2">
         <v>0.90641025641025597</v>
       </c>
-      <c r="Q24" t="s">
-        <v>37</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="R24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="Z24">
+      <c r="AA24" s="2">
         <v>1.000292</v>
       </c>
-      <c r="AA24">
+      <c r="AB24" s="2">
         <v>1.004418</v>
       </c>
-      <c r="AB24">
+      <c r="AC24" s="2">
         <v>1.55844</v>
       </c>
-      <c r="AC24">
+      <c r="AD24" s="2">
         <v>5</v>
       </c>
-      <c r="AD24">
+      <c r="AE24" s="2">
         <v>2.3674759999999999</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2">
         <v>5</v>
       </c>
-      <c r="AG24">
+      <c r="AH24" s="2">
         <v>0.67701699999999998</v>
       </c>
-      <c r="AH24">
+      <c r="AI24" s="2">
         <v>1.2537940000000001</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24" s="2">
         <v>0.9375</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24" s="2">
         <v>5</v>
-      </c>
-      <c r="AK24" s="4" t="b">
-        <f>AND(B24&gt;15,C24&gt;0.1,D24="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="14" t="b">
+        <f>AND(C25&gt;10,D25&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B25">
+      <c r="C25" s="2">
         <v>6</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J25">
+      <c r="K25" s="2">
         <v>2.87179487179487</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
         <v>0.34821428571428498</v>
       </c>
-      <c r="M25">
+      <c r="N25" s="2">
         <v>1</v>
       </c>
-      <c r="N25">
+      <c r="O25" s="2">
         <v>5</v>
       </c>
-      <c r="O25">
+      <c r="P25" s="2">
         <v>9</v>
       </c>
-      <c r="P25">
+      <c r="Q25" s="2">
         <v>0.90641025641025597</v>
       </c>
-      <c r="Q25" t="s">
-        <v>37</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="R25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Z25">
+      <c r="AA25" s="2">
         <v>1.2611840000000001</v>
       </c>
-      <c r="AA25">
+      <c r="AB25" s="2">
         <v>1.6078920000000001</v>
       </c>
-      <c r="AB25">
+      <c r="AC25" s="2">
         <v>2.6079599999999998</v>
       </c>
-      <c r="AC25">
+      <c r="AD25" s="2">
         <v>5</v>
       </c>
-      <c r="AD25">
+      <c r="AE25" s="2">
         <v>1.778211</v>
       </c>
-      <c r="AE25">
+      <c r="AF25" s="2">
         <v>1.719711</v>
       </c>
-      <c r="AF25">
+      <c r="AG25" s="2">
         <v>5</v>
       </c>
-      <c r="AG25">
+      <c r="AH25" s="2">
         <v>0.93972199999999995</v>
       </c>
-      <c r="AH25">
+      <c r="AI25" s="2">
         <v>1.5204679999999999</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2">
         <v>5</v>
-      </c>
-      <c r="AK25" s="4" t="b">
-        <f>AND(B25&gt;15,C25&gt;0.1,D25="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="14" t="b">
+        <f>AND(C26&gt;10,D26&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B26">
+      <c r="C26" s="2">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="J26">
+      <c r="K26" s="2">
         <v>2.4871794871794801</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
         <v>0.402061855670103</v>
       </c>
-      <c r="M26">
+      <c r="N26" s="2">
         <v>1</v>
       </c>
-      <c r="N26">
+      <c r="O26" s="2">
         <v>4</v>
       </c>
-      <c r="O26">
+      <c r="P26" s="2">
         <v>11.8</v>
       </c>
-      <c r="P26">
+      <c r="Q26" s="2">
         <v>0.92564102564102502</v>
       </c>
-      <c r="Q26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="R26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="Z26">
+      <c r="AA26" s="2">
         <v>0.95041699999999996</v>
       </c>
-      <c r="AA26">
+      <c r="AB26" s="2">
         <v>1.2790699999999999</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2">
         <v>0.93422300000000003</v>
       </c>
-      <c r="AD26">
+      <c r="AE26" s="2">
         <v>3.4555980000000002</v>
       </c>
-      <c r="AE26">
+      <c r="AF26" s="2">
         <v>0.91802600000000001</v>
       </c>
-      <c r="AF26">
+      <c r="AG26" s="2">
         <v>1.3736139999999999</v>
       </c>
-      <c r="AG26">
+      <c r="AH26" s="2">
         <v>1.3607940000000001</v>
       </c>
-      <c r="AH26">
+      <c r="AI26" s="2">
         <v>1.27349</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2">
         <v>1.4153230000000001</v>
-      </c>
-      <c r="AK26" s="4" t="b">
-        <f>AND(B26&gt;15,C26&gt;0.1,D26="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="14" t="b">
+        <f>AND(C27&gt;10,D27&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B27">
+      <c r="C27" s="2">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="D27" s="2">
         <v>5.7706620864515501E-2</v>
       </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="E27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J27">
+      <c r="K27" s="2">
         <v>2.1538461538461502</v>
       </c>
-      <c r="K27">
+      <c r="L27" s="2">
         <v>234</v>
       </c>
-      <c r="L27">
+      <c r="M27" s="2">
         <v>0.46428571428571402</v>
       </c>
-      <c r="M27">
+      <c r="N27" s="2">
         <v>0.16666666666666599</v>
       </c>
-      <c r="N27">
+      <c r="O27" s="2">
         <v>3</v>
       </c>
-      <c r="O27">
+      <c r="P27" s="2">
         <v>10.5</v>
       </c>
-      <c r="P27">
+      <c r="Q27" s="2">
         <v>0.94230769230769196</v>
       </c>
-      <c r="Q27" t="s">
-        <v>37</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="R27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2">
         <v>0.37037037037037002</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="Z27">
+      <c r="AA27" s="2">
         <v>1.6758960000000001</v>
       </c>
-      <c r="AA27">
+      <c r="AB27" s="2">
         <v>1.8093170000000001</v>
       </c>
-      <c r="AB27">
+      <c r="AC27" s="2">
         <v>1.3216289999999999</v>
       </c>
-      <c r="AC27">
+      <c r="AD27" s="2">
         <v>1.2076450000000001</v>
       </c>
-      <c r="AD27">
+      <c r="AE27" s="2">
         <v>4.6590600000000002</v>
       </c>
-      <c r="AE27">
+      <c r="AF27" s="2">
         <v>0.94493499999999997</v>
       </c>
-      <c r="AF27">
+      <c r="AG27" s="2">
         <v>1.702194</v>
       </c>
-      <c r="AG27">
+      <c r="AH27" s="2">
         <v>1.5425489999999999</v>
       </c>
-      <c r="AH27">
+      <c r="AI27" s="2">
         <v>2.0669059999999999</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2">
         <v>5</v>
-      </c>
-      <c r="AK27" s="4" t="b">
-        <f>AND(B27&gt;15,C27&gt;0.1,D27="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="14" t="b">
+        <f>AND(C28&gt;10,D28&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B28">
+      <c r="C28" s="2">
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="D28" s="2">
         <v>7.3054187236104406E-2</v>
       </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="E28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J28">
+      <c r="K28" s="2">
         <v>2.4871794871794801</v>
       </c>
-      <c r="K28">
+      <c r="L28" s="2">
         <v>798</v>
       </c>
-      <c r="L28">
+      <c r="M28" s="2">
         <v>0.402061855670103</v>
       </c>
-      <c r="M28">
+      <c r="N28" s="2">
         <v>0.16666666666666599</v>
       </c>
-      <c r="N28">
+      <c r="O28" s="2">
         <v>4</v>
       </c>
-      <c r="O28">
+      <c r="P28" s="2">
         <v>8</v>
       </c>
-      <c r="P28">
+      <c r="Q28" s="2">
         <v>0.92564102564102502</v>
       </c>
-      <c r="Q28" t="s">
-        <v>37</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="R28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2">
         <v>0.375</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Z28">
+      <c r="AA28" s="2">
         <v>2.2042869999999999</v>
       </c>
-      <c r="AA28">
+      <c r="AB28" s="2">
         <v>1.9251149999999999</v>
       </c>
-      <c r="AB28">
+      <c r="AC28" s="2">
         <v>1.829386</v>
       </c>
-      <c r="AC28">
+      <c r="AD28" s="2">
         <v>1.6075809999999999</v>
       </c>
-      <c r="AD28">
+      <c r="AE28" s="2">
         <v>4.5330399999999997</v>
       </c>
-      <c r="AE28">
+      <c r="AF28" s="2">
         <v>1.3786910000000001</v>
       </c>
-      <c r="AF28">
+      <c r="AG28" s="2">
         <v>1.8332649999999999</v>
       </c>
-      <c r="AG28">
+      <c r="AH28" s="2">
         <v>1.732953</v>
       </c>
-      <c r="AH28">
+      <c r="AI28" s="2">
         <v>2.1160559999999999</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28" s="2">
         <v>0.28125</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28" s="2">
         <v>5</v>
-      </c>
-      <c r="AK28" s="4" t="b">
-        <f>AND(B28&gt;15,C28&gt;0.1,D28="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="14" t="b">
+        <f>AND(C29&gt;10,D29&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B29">
+      <c r="C29" s="2">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="D29" s="2">
         <v>4.08088987036355E-2</v>
       </c>
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="E29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J29">
+      <c r="K29" s="2">
         <v>2.3589743589743501</v>
       </c>
-      <c r="K29">
+      <c r="L29" s="2">
         <v>250</v>
       </c>
-      <c r="L29">
+      <c r="M29" s="2">
         <v>0.42391304347825998</v>
       </c>
-      <c r="M29">
+      <c r="N29" s="2">
         <v>0.16666666666666599</v>
       </c>
-      <c r="N29">
+      <c r="O29" s="2">
         <v>4</v>
       </c>
-      <c r="O29">
+      <c r="P29" s="2">
         <v>9.75</v>
       </c>
-      <c r="P29">
+      <c r="Q29" s="2">
         <v>0.93205128205128196</v>
       </c>
-      <c r="Q29" t="s">
-        <v>37</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="R29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="Z29">
+      <c r="AA29" s="2">
         <v>1.1727099999999999</v>
       </c>
-      <c r="AA29">
+      <c r="AB29" s="2">
         <v>4.6181419999999997</v>
       </c>
-      <c r="AB29">
+      <c r="AC29" s="2">
         <v>0.76453099999999996</v>
       </c>
-      <c r="AC29">
+      <c r="AD29" s="2">
         <v>0.71083200000000002</v>
       </c>
-      <c r="AD29">
+      <c r="AE29" s="2">
         <v>1.9923249999999999</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2">
         <v>1.2579100000000001</v>
       </c>
-      <c r="AG29">
+      <c r="AH29" s="2">
         <v>0.93150100000000002</v>
       </c>
-      <c r="AH29">
+      <c r="AI29" s="2">
         <v>2.3077960000000002</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2">
         <v>1.821064</v>
-      </c>
-      <c r="AK29" s="4" t="b">
-        <f>AND(B29&gt;15,C29&gt;0.1,D29="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="14" t="b">
+        <f>AND(C30&gt;10,D30&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B30">
+      <c r="C30" s="2">
         <v>4</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J30">
+      <c r="K30" s="2">
         <v>2.5641025641025599</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
         <v>0.38999999999999901</v>
       </c>
-      <c r="M30">
+      <c r="N30" s="2">
         <v>1</v>
       </c>
-      <c r="N30">
+      <c r="O30" s="2">
         <v>4</v>
       </c>
-      <c r="O30">
+      <c r="P30" s="2">
         <v>11</v>
       </c>
-      <c r="P30">
+      <c r="Q30" s="2">
         <v>0.92179487179487096</v>
       </c>
-      <c r="Q30" t="s">
-        <v>37</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="R30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="Z30">
+      <c r="AA30" s="2">
         <v>1.265091</v>
       </c>
-      <c r="AA30">
+      <c r="AB30" s="2">
         <v>2.605102</v>
       </c>
-      <c r="AB30">
+      <c r="AC30" s="2">
         <v>1.0954919999999999</v>
       </c>
-      <c r="AC30">
+      <c r="AD30" s="2">
         <v>1.1954070000000001</v>
       </c>
-      <c r="AD30">
+      <c r="AE30" s="2">
         <v>2.5776180000000002</v>
       </c>
-      <c r="AE30">
+      <c r="AF30" s="2">
         <v>0.89524000000000004</v>
       </c>
-      <c r="AF30">
+      <c r="AG30" s="2">
         <v>1.5268360000000001</v>
       </c>
-      <c r="AG30">
+      <c r="AH30" s="2">
         <v>1.2317659999999999</v>
       </c>
-      <c r="AH30">
+      <c r="AI30" s="2">
         <v>2.8143850000000001</v>
       </c>
-      <c r="AJ30">
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2">
         <v>4.7681360000000002</v>
-      </c>
-      <c r="AK30" s="4" t="b">
-        <f>AND(B30&gt;15,C30&gt;0.1,D30="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="14" t="b">
+        <f>AND(C31&gt;10,D31&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31">
+      <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="D31" s="2">
         <v>5.4577815381629799E-2</v>
       </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="E31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J31">
+      <c r="K31" s="2">
         <v>2.3333333333333299</v>
       </c>
-      <c r="K31">
+      <c r="L31" s="2">
         <v>190</v>
       </c>
-      <c r="L31">
+      <c r="M31" s="2">
         <v>0.42857142857142799</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
         <v>4</v>
       </c>
-      <c r="O31">
+      <c r="P31" s="2">
         <v>9.3333333333333304</v>
       </c>
-      <c r="P31">
+      <c r="Q31" s="2">
         <v>0.93333333333333302</v>
       </c>
-      <c r="Q31" t="s">
-        <v>37</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="R31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X31">
+      <c r="Y31" s="2">
         <v>0.37878787878787801</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Z31">
+      <c r="AA31" s="2">
         <v>2.9309470000000002</v>
       </c>
-      <c r="AA31">
+      <c r="AB31" s="2">
         <v>2.5800900000000002</v>
       </c>
-      <c r="AB31">
+      <c r="AC31" s="2">
         <v>2.2335940000000001</v>
       </c>
-      <c r="AC31">
+      <c r="AD31" s="2">
         <v>5</v>
       </c>
-      <c r="AD31">
+      <c r="AE31" s="2">
         <v>4.655678</v>
       </c>
-      <c r="AE31">
+      <c r="AF31" s="2">
         <v>1.9330000000000001</v>
       </c>
-      <c r="AF31">
+      <c r="AG31" s="2">
         <v>5</v>
       </c>
-      <c r="AG31">
+      <c r="AH31" s="2">
         <v>2.474904</v>
       </c>
-      <c r="AH31">
+      <c r="AI31" s="2">
         <v>3.8474810000000002</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31" s="2">
         <v>1.3448830000000001</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31" s="2">
         <v>5</v>
-      </c>
-      <c r="AK31" s="4" t="b">
-        <f>AND(B31&gt;15,C31&gt;0.1,D31="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="14" t="b">
+        <f>AND(C32&gt;10,D32&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B32">
+      <c r="C32" s="2">
         <v>3</v>
       </c>
-      <c r="C32">
+      <c r="D32" s="2">
         <v>5.1282051282051197E-2</v>
       </c>
-      <c r="D32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="E32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J32">
+      <c r="K32" s="2">
         <v>2.4358974358974299</v>
       </c>
-      <c r="K32">
+      <c r="L32" s="2">
         <v>240</v>
       </c>
-      <c r="L32">
+      <c r="M32" s="2">
         <v>0.41052631578947302</v>
       </c>
-      <c r="M32">
+      <c r="N32" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N32">
+      <c r="O32" s="2">
         <v>4</v>
       </c>
-      <c r="O32">
+      <c r="P32" s="2">
         <v>12.3333333333333</v>
       </c>
-      <c r="P32">
+      <c r="Q32" s="2">
         <v>0.92820512820512802</v>
       </c>
-      <c r="Q32" t="s">
-        <v>37</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="R32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Z32">
+      <c r="AA32" s="2">
         <v>4.0690109999999997</v>
       </c>
-      <c r="AA32">
+      <c r="AB32" s="2">
         <v>4.6095379999999997</v>
       </c>
-      <c r="AB32">
+      <c r="AC32" s="2">
         <v>1.413867</v>
       </c>
-      <c r="AC32">
+      <c r="AD32" s="2">
         <v>1.8595090000000001</v>
       </c>
-      <c r="AD32">
+      <c r="AE32" s="2">
         <v>2.7120739999999999</v>
       </c>
-      <c r="AE32">
+      <c r="AF32" s="2">
         <v>1.4080250000000001</v>
       </c>
-      <c r="AF32">
+      <c r="AG32" s="2">
         <v>1.587553</v>
       </c>
-      <c r="AG32">
+      <c r="AH32" s="2">
         <v>1.4144330000000001</v>
       </c>
-      <c r="AH32">
+      <c r="AI32" s="2">
         <v>2.509633</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32" s="2">
         <v>0.46875</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32" s="2">
         <v>3.9721510000000002</v>
-      </c>
-      <c r="AK32" s="4" t="b">
-        <f>AND(B32&gt;15,C32&gt;0.1,D32="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="14" t="b">
+        <f>AND(C33&gt;10,D33&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B33">
+      <c r="C33" s="2">
         <v>2</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J33">
+      <c r="K33" s="2">
         <v>2.8205128205128198</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
         <v>0.354545454545454</v>
       </c>
-      <c r="M33">
+      <c r="N33" s="2">
         <v>1</v>
       </c>
-      <c r="N33">
+      <c r="O33" s="2">
         <v>4</v>
       </c>
-      <c r="O33">
+      <c r="P33" s="2">
         <v>8.5</v>
       </c>
-      <c r="P33">
+      <c r="Q33" s="2">
         <v>0.90897435897435896</v>
       </c>
-      <c r="Q33" t="s">
-        <v>37</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="R33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2">
         <v>0.65384615384615297</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Z33">
+      <c r="AA33" s="2">
         <v>1.283366</v>
       </c>
-      <c r="AA33">
+      <c r="AB33" s="2">
         <v>1.5105679999999999</v>
       </c>
-      <c r="AB33">
+      <c r="AC33" s="2">
         <v>1.205036</v>
       </c>
-      <c r="AC33">
+      <c r="AD33" s="2">
         <v>1.0798080000000001</v>
       </c>
-      <c r="AD33">
+      <c r="AE33" s="2">
         <v>3.219395</v>
       </c>
-      <c r="AE33">
+      <c r="AF33" s="2">
         <v>1.296592</v>
       </c>
-      <c r="AF33">
+      <c r="AG33" s="2">
         <v>1.342616</v>
       </c>
-      <c r="AG33">
+      <c r="AH33" s="2">
         <v>1.364571</v>
       </c>
-      <c r="AH33">
+      <c r="AI33" s="2">
         <v>1.9006890000000001</v>
       </c>
-      <c r="AJ33">
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2">
         <v>4.3872070000000001</v>
-      </c>
-      <c r="AK33" s="4" t="b">
-        <f>AND(B33&gt;15,C33&gt;0.1,D33="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="14" t="b">
+        <f>AND(C34&gt;10,D34&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B34">
+      <c r="C34" s="2">
         <v>2</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="5">
         <v>4.4984255510571199E-4</v>
       </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="E34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J34">
+      <c r="K34" s="2">
         <v>3.0512820512820502</v>
       </c>
-      <c r="K34">
+      <c r="L34" s="2">
         <v>2</v>
       </c>
-      <c r="L34">
+      <c r="M34" s="2">
         <v>0.32773109243697401</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
         <v>4</v>
       </c>
-      <c r="O34">
+      <c r="P34" s="2">
         <v>4</v>
       </c>
-      <c r="P34">
+      <c r="Q34" s="2">
         <v>0.89743589743589702</v>
       </c>
-      <c r="Q34" t="s">
-        <v>37</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="R34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V34" s="2"/>
+      <c r="W34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2">
         <v>0.75</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="Z34">
+      <c r="AA34" s="2">
         <v>1.2304740000000001</v>
       </c>
-      <c r="AA34">
+      <c r="AB34" s="2">
         <v>1.5550999999999999</v>
       </c>
-      <c r="AB34">
+      <c r="AC34" s="2">
         <v>1.343137</v>
       </c>
-      <c r="AC34">
+      <c r="AD34" s="2">
         <v>0.87268100000000004</v>
       </c>
-      <c r="AD34">
+      <c r="AE34" s="2">
         <v>2.4405640000000002</v>
       </c>
-      <c r="AE34">
+      <c r="AF34" s="2">
         <v>0.58487100000000003</v>
       </c>
-      <c r="AF34">
+      <c r="AG34" s="2">
         <v>1.3105880000000001</v>
       </c>
-      <c r="AG34">
+      <c r="AH34" s="2">
         <v>1.216539</v>
       </c>
-      <c r="AH34">
+      <c r="AI34" s="2">
         <v>1.4632179999999999</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34" s="2">
         <v>0.5625</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34" s="2">
         <v>4.7293760000000002</v>
-      </c>
-      <c r="AK34" s="4" t="b">
-        <f>AND(B34&gt;15,C34&gt;0.1,D34="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="14" t="b">
+        <f>AND(C35&gt;10,D35&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B35">
+      <c r="C35" s="2">
         <v>2</v>
       </c>
-      <c r="C35">
+      <c r="D35" s="2">
         <v>1.3495276653171301E-3</v>
       </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="E35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J35">
+      <c r="K35" s="2">
         <v>3.2564102564102502</v>
       </c>
-      <c r="K35">
+      <c r="L35" s="2">
         <v>4</v>
       </c>
-      <c r="L35">
+      <c r="M35" s="2">
         <v>0.30708661417322802</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
         <v>5</v>
       </c>
-      <c r="O35">
+      <c r="P35" s="2">
         <v>5</v>
       </c>
-      <c r="P35">
+      <c r="Q35" s="2">
         <v>0.88717948717948703</v>
       </c>
-      <c r="Q35" t="s">
-        <v>37</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="R35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z35">
+      <c r="AA35" s="2">
         <v>2.012232</v>
       </c>
-      <c r="AA35">
+      <c r="AB35" s="2">
         <v>4.5308039999999998</v>
       </c>
-      <c r="AB35">
+      <c r="AC35" s="2">
         <v>1.380117</v>
       </c>
-      <c r="AC35">
+      <c r="AD35" s="2">
         <v>0.99219000000000002</v>
       </c>
-      <c r="AD35">
+      <c r="AE35" s="2">
         <v>2.5721690000000001</v>
       </c>
-      <c r="AE35">
+      <c r="AF35" s="2">
         <v>1.9375450000000001</v>
       </c>
-      <c r="AF35">
+      <c r="AG35" s="2">
         <v>1.1445399999999999</v>
       </c>
-      <c r="AG35">
+      <c r="AH35" s="2">
         <v>1.723239</v>
       </c>
-      <c r="AH35">
+      <c r="AI35" s="2">
         <v>5</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35" s="2">
         <v>0.75151500000000004</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35" s="2">
         <v>2.137791</v>
-      </c>
-      <c r="AK35" s="4" t="b">
-        <f>AND(B35&gt;15,C35&gt;0.1,D35="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="14" t="b">
+        <f>AND(C36&gt;10,D36&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B36">
+      <c r="C36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="5">
         <v>4.4984255510571199E-4</v>
       </c>
-      <c r="D36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="E36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J36">
+      <c r="K36" s="2">
         <v>3.0512820512820502</v>
       </c>
-      <c r="K36">
+      <c r="L36" s="2">
         <v>2</v>
       </c>
-      <c r="L36">
+      <c r="M36" s="2">
         <v>0.32773109243697401</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
         <v>4</v>
       </c>
-      <c r="O36">
+      <c r="P36" s="2">
         <v>4</v>
       </c>
-      <c r="P36">
+      <c r="Q36" s="2">
         <v>0.89743589743589702</v>
       </c>
-      <c r="Q36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="R36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z36">
+      <c r="AA36" s="2">
         <v>1.1411230000000001</v>
       </c>
-      <c r="AA36">
+      <c r="AB36" s="2">
         <v>1.3725210000000001</v>
       </c>
-      <c r="AB36">
+      <c r="AC36" s="2">
         <v>1.4291579999999999</v>
       </c>
-      <c r="AC36">
+      <c r="AD36" s="2">
         <v>1.3602449999999999</v>
       </c>
-      <c r="AD36">
+      <c r="AE36" s="2">
         <v>4.6506970000000001</v>
       </c>
-      <c r="AE36">
+      <c r="AF36" s="2">
         <v>1.252165</v>
       </c>
-      <c r="AF36">
+      <c r="AG36" s="2">
         <v>1.4685550000000001</v>
       </c>
-      <c r="AG36">
+      <c r="AH36" s="2">
         <v>0.76952399999999999</v>
       </c>
-      <c r="AH36">
+      <c r="AI36" s="2">
         <v>1.6450979999999999</v>
       </c>
-      <c r="AJ36">
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2">
         <v>5</v>
-      </c>
-      <c r="AK36" s="4" t="b">
-        <f>AND(B36&gt;15,C36&gt;0.1,D36="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="14" t="b">
+        <f>AND(C37&gt;10,D37&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B37">
+      <c r="C37" s="2">
         <v>2</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J37">
+      <c r="K37" s="2">
         <v>2.4871794871794801</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
         <v>0.402061855670103</v>
       </c>
-      <c r="M37">
+      <c r="N37" s="2">
         <v>1</v>
       </c>
-      <c r="N37">
+      <c r="O37" s="2">
         <v>4</v>
       </c>
-      <c r="O37">
+      <c r="P37" s="2">
         <v>18</v>
       </c>
-      <c r="P37">
+      <c r="Q37" s="2">
         <v>0.92564102564102502</v>
       </c>
-      <c r="Q37" t="s">
-        <v>37</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="R37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Z37">
+      <c r="AA37" s="2">
         <v>1.868913</v>
       </c>
-      <c r="AA37">
+      <c r="AB37" s="2">
         <v>4.7503260000000003</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2">
         <v>0.76632400000000001</v>
       </c>
-      <c r="AD37">
+      <c r="AE37" s="2">
         <v>1.2279439999999999</v>
       </c>
-      <c r="AE37">
+      <c r="AF37" s="2">
         <v>0.59244699999999995</v>
       </c>
-      <c r="AF37">
+      <c r="AG37" s="2">
         <v>0.74665499999999996</v>
       </c>
-      <c r="AG37">
+      <c r="AH37" s="2">
         <v>0.1875</v>
       </c>
-      <c r="AH37">
+      <c r="AI37" s="2">
         <v>4.4203409999999996</v>
       </c>
-      <c r="AJ37">
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2">
         <v>5</v>
-      </c>
-      <c r="AK37" s="4" t="b">
-        <f>AND(B37&gt;15,C37&gt;0.1,D37="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="14" t="b">
+        <f>AND(C38&gt;10,D38&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B38">
+      <c r="C38" s="2">
         <v>2</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J38">
+      <c r="K38" s="2">
         <v>2.6410256410256401</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
         <v>0.37864077669902901</v>
       </c>
-      <c r="M38">
+      <c r="N38" s="2">
         <v>1</v>
       </c>
-      <c r="N38">
+      <c r="O38" s="2">
         <v>4</v>
       </c>
-      <c r="O38">
+      <c r="P38" s="2">
         <v>12.5</v>
       </c>
-      <c r="P38">
+      <c r="Q38" s="2">
         <v>0.91794871794871702</v>
       </c>
-      <c r="Q38" t="s">
-        <v>37</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="R38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S38" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Z38">
+      <c r="AA38" s="2">
         <v>1.521309</v>
       </c>
-      <c r="AA38">
+      <c r="AB38" s="2">
         <v>1.809671</v>
       </c>
-      <c r="AB38">
+      <c r="AC38" s="2">
         <v>0.94303899999999996</v>
       </c>
-      <c r="AC38">
+      <c r="AD38" s="2">
         <v>1.056681</v>
       </c>
-      <c r="AD38">
+      <c r="AE38" s="2">
         <v>4.1802720000000004</v>
       </c>
-      <c r="AE38">
+      <c r="AF38" s="2">
         <v>1.0919749999999999</v>
       </c>
-      <c r="AF38">
+      <c r="AG38" s="2">
         <v>1.1754</v>
       </c>
-      <c r="AG38">
+      <c r="AH38" s="2">
         <v>1.1099429999999999</v>
       </c>
-      <c r="AH38">
+      <c r="AI38" s="2">
         <v>1.5966020000000001</v>
       </c>
-      <c r="AJ38">
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2">
         <v>5</v>
-      </c>
-      <c r="AK38" s="4" t="b">
-        <f>AND(B38&gt;15,C38&gt;0.1,D38="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="14" t="b">
+        <f>AND(C39&gt;10,D39&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B39">
+      <c r="C39" s="2">
         <v>1</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J39">
+      <c r="K39" s="2">
         <v>3.3076923076922999</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
         <v>0.30232558139534799</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
         <v>5</v>
       </c>
-      <c r="O39">
+      <c r="P39" s="2">
         <v>3</v>
       </c>
-      <c r="P39">
+      <c r="Q39" s="2">
         <v>0.88461538461538403</v>
       </c>
-      <c r="Q39" t="s">
-        <v>37</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="R39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S39" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="V39" t="s">
+      <c r="V39" s="2"/>
+      <c r="W39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="s">
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="Z39">
+      <c r="AA39" s="2">
         <v>1.7203580000000001</v>
       </c>
-      <c r="AA39">
+      <c r="AB39" s="2">
         <v>1.7070989999999999</v>
       </c>
-      <c r="AB39">
+      <c r="AC39" s="2">
         <v>1.3531420000000001</v>
       </c>
-      <c r="AC39">
+      <c r="AD39" s="2">
         <v>1.374709</v>
       </c>
-      <c r="AD39">
+      <c r="AE39" s="2">
         <v>5</v>
       </c>
-      <c r="AE39">
+      <c r="AF39" s="2">
         <v>0.58453599999999994</v>
       </c>
-      <c r="AF39">
+      <c r="AG39" s="2">
         <v>1.4604239999999999</v>
       </c>
-      <c r="AG39">
+      <c r="AH39" s="2">
         <v>1.3858740000000001</v>
       </c>
-      <c r="AH39">
+      <c r="AI39" s="2">
         <v>1.952699</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39" s="2">
         <v>0.63328600000000002</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39" s="2">
         <v>3.9663499999999998</v>
-      </c>
-      <c r="AK39" s="4" t="b">
-        <f>AND(B39&gt;15,C39&gt;0.1,D39="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="14" t="b">
+        <f>AND(C40&gt;10,D40&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B40">
+      <c r="C40" s="2">
         <v>1</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J40">
+      <c r="K40" s="2">
         <v>3.4615384615384599</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
         <v>0.28888888888888797</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
         <v>5</v>
       </c>
-      <c r="O40">
+      <c r="P40" s="2">
         <v>4</v>
       </c>
-      <c r="P40">
+      <c r="Q40" s="2">
         <v>0.87692307692307703</v>
       </c>
-      <c r="Q40" t="s">
-        <v>37</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="R40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S40" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="Z40">
+      <c r="AA40" s="2">
         <v>1.0602100000000001</v>
       </c>
-      <c r="AA40">
+      <c r="AB40" s="2">
         <v>1.5847770000000001</v>
       </c>
-      <c r="AB40">
+      <c r="AC40" s="2">
         <v>1.521423</v>
       </c>
-      <c r="AC40">
+      <c r="AD40" s="2">
         <v>1.1213</v>
       </c>
-      <c r="AD40">
+      <c r="AE40" s="2">
         <v>4.649089</v>
       </c>
-      <c r="AE40">
+      <c r="AF40" s="2">
         <v>1.131321</v>
       </c>
-      <c r="AF40">
+      <c r="AG40" s="2">
         <v>1.736354</v>
       </c>
-      <c r="AG40">
+      <c r="AH40" s="2">
         <v>1.6218649999999999</v>
       </c>
-      <c r="AH40">
+      <c r="AI40" s="2">
         <v>1.461957</v>
       </c>
-      <c r="AJ40">
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2">
         <v>5</v>
-      </c>
-      <c r="AK40" s="4" t="b">
-        <f>AND(B40&gt;15,C40&gt;0.1,D40="true")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="14" t="b">
+        <f>AND(C41&gt;10,D41&gt;0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B41">
+      <c r="C41" s="2">
         <v>1</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J41">
+      <c r="K41" s="2">
         <v>3.4102564102564101</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
         <v>0.29323308270676601</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
         <v>5</v>
       </c>
-      <c r="O41">
+      <c r="P41" s="2">
         <v>3</v>
       </c>
-      <c r="P41">
+      <c r="Q41" s="2">
         <v>0.87948717948717903</v>
       </c>
-      <c r="Q41" t="s">
-        <v>37</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="R41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S41" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Z41">
+      <c r="AA41" s="2">
         <v>1.2888850000000001</v>
       </c>
-      <c r="AA41">
+      <c r="AB41" s="2">
         <v>4.5957160000000004</v>
       </c>
-      <c r="AD41">
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2">
         <v>0.98734200000000005</v>
       </c>
-      <c r="AE41">
+      <c r="AF41" s="2">
         <v>2.0505420000000001</v>
       </c>
-      <c r="AF41">
+      <c r="AG41" s="2">
         <v>0.52873999999999999</v>
       </c>
-      <c r="AG41">
+      <c r="AH41" s="2">
         <v>0.84417299999999995</v>
       </c>
-      <c r="AH41">
+      <c r="AI41" s="2">
         <v>3.0292460000000001</v>
       </c>
-      <c r="AJ41">
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2">
         <v>0.87744599999999995</v>
-      </c>
-      <c r="AK41" s="4" t="b">
-        <f>AND(B41&gt;15,C41&gt;0.1,D41="true")</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ41">
-    <sortCondition descending="1" ref="B1:B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AK41">
+    <sortCondition descending="1" ref="C1:C41"/>
   </sortState>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D41">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C41">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E41">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Genes_of_interest_DARKRED_excel.xlsx
+++ b/Genes_of_interest_DARKRED_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fe7511e01eadebe/Academic/R_coding/ResearchProject1/CardiomyopathyGroup2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:40009_{9068CC01-A397-419B-80DE-4D6BD73F7B02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4CE7B694-9908-45B5-8367-2F2366EF88F5}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:40009_{9068CC01-A397-419B-80DE-4D6BD73F7B02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CECBFC46-A982-4BA3-990D-E1A5601EEC45}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15012" yWindow="1860" windowWidth="22992" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genes_of_interest_DARKRED" sheetId="1" r:id="rId1"/>
@@ -1484,12 +1484,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1550,6 +1544,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1595,33 +1595,12 @@
     <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1642,6 +1621,20 @@
         <patternFill patternType="darkDown">
           <fgColor theme="9" tint="0.79998168889431442"/>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1965,21 +1958,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="24" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="5.88671875" customWidth="1"/>
     <col min="6" max="6" width="4.77734375" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="90.6640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="90.6640625" style="19" customWidth="1"/>
     <col min="10" max="10" width="18.44140625" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="7.109375" customWidth="1"/>
@@ -2001,4376 +1992,4376 @@
     <col min="37" max="37" width="1.77734375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" s="26" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="b">
+      <c r="A2" s="5" t="b">
         <f>AND(C2&gt;10,D2&gt;0.04)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>20</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>0.27396673084946299</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>1.5384615384615301</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="6">
         <v>1850</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <v>0.64999999999999902</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="6">
         <v>0.384210526315789</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="8">
         <v>3</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="8">
         <v>10.35</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="8">
         <v>0.97307692307692295</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="10" t="s">
+      <c r="R2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10" t="s">
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AA2" s="8">
         <v>5</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="8">
         <v>4.7946619999999998</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="8">
         <v>2.1441789999999998</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AD2" s="8">
         <v>2.2418450000000001</v>
       </c>
-      <c r="AE2" s="10">
+      <c r="AE2" s="8">
         <v>4.5562459999999998</v>
       </c>
-      <c r="AF2" s="10">
+      <c r="AF2" s="8">
         <v>3.2363460000000002</v>
       </c>
-      <c r="AG2" s="10">
+      <c r="AG2" s="8">
         <v>2.1693479999999998</v>
       </c>
-      <c r="AH2" s="10">
+      <c r="AH2" s="8">
         <v>2.8817620000000002</v>
       </c>
-      <c r="AI2" s="10">
+      <c r="AI2" s="8">
         <v>2.7725689999999998</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AJ2" s="9">
         <v>0.99068999999999996</v>
       </c>
-      <c r="AK2" s="11">
+      <c r="AK2" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="b">
+      <c r="A3" s="5" t="b">
         <f t="shared" ref="A3:A41" si="0">AND(C3&gt;10,D3&gt;0.04)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>18</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>0.206672082575939</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="E3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <v>1.6923076923076901</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="10">
         <v>1874</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <v>0.59090909090909005</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <v>0.39215686274509798</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="10">
         <v>3</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="10">
         <v>10.3333333333333</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="10">
         <v>0.96538461538461495</v>
       </c>
-      <c r="R3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="12" t="s">
+      <c r="R3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12">
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10">
         <v>0.31313131313131298</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="10">
         <v>2.2245810000000001</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="10">
         <v>2.3431799999999998</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="10">
         <v>1.6464510000000001</v>
       </c>
-      <c r="AD3" s="12">
+      <c r="AD3" s="10">
         <v>1.667767</v>
       </c>
-      <c r="AE3" s="12">
+      <c r="AE3" s="10">
         <v>3.706782</v>
       </c>
-      <c r="AF3" s="12">
+      <c r="AF3" s="10">
         <v>1.5101089999999999</v>
       </c>
-      <c r="AG3" s="12">
+      <c r="AG3" s="10">
         <v>1.7788870000000001</v>
       </c>
-      <c r="AH3" s="12">
+      <c r="AH3" s="10">
         <v>1.7353989999999999</v>
       </c>
-      <c r="AI3" s="12">
+      <c r="AI3" s="10">
         <v>3.6587839999999998</v>
       </c>
-      <c r="AJ3" s="12">
+      <c r="AJ3" s="10">
         <v>1.6875</v>
       </c>
-      <c r="AK3" s="12">
+      <c r="AK3" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="b">
+      <c r="A4" s="5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>16</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>9.0465937860645496E-2</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="E4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>1.7179487179487101</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="11">
         <v>1096</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="11">
         <v>0.58208955223880599</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <v>0.53333333333333299</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="11">
         <v>3</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="11">
         <v>12</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <v>0.96410256410256401</v>
       </c>
-      <c r="R4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="13" t="s">
+      <c r="R4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13" t="s">
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AA4" s="11">
         <v>2.3863319999999999</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AB4" s="11">
         <v>4.6599190000000004</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="11">
         <v>1.908358</v>
       </c>
-      <c r="AD4" s="13">
+      <c r="AD4" s="11">
         <v>1.960653</v>
       </c>
-      <c r="AE4" s="13">
+      <c r="AE4" s="11">
         <v>2.5709019999999998</v>
       </c>
-      <c r="AF4" s="13">
+      <c r="AF4" s="11">
         <v>1.6408529999999999</v>
       </c>
-      <c r="AG4" s="13">
+      <c r="AG4" s="11">
         <v>1.94225</v>
       </c>
-      <c r="AH4" s="13">
+      <c r="AH4" s="11">
         <v>1.7668440000000001</v>
       </c>
-      <c r="AI4" s="13">
+      <c r="AI4" s="11">
         <v>3.0713530000000002</v>
       </c>
-      <c r="AJ4" s="13">
+      <c r="AJ4" s="11">
         <v>1.093753</v>
       </c>
-      <c r="AK4" s="13">
+      <c r="AK4" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="b">
+      <c r="A5" s="5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>15</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>4.5390482315676502E-2</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="E5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>1.7692307692307601</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="11">
         <v>836</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="11">
         <v>0.56521739130434701</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <v>0.63809523809523805</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="11">
         <v>3</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="11">
         <v>13.2</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="11">
         <v>0.96153846153846101</v>
       </c>
-      <c r="R5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="13" t="s">
+      <c r="R5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13">
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11">
         <v>0.4</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="Z5" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="AA5" s="13">
+      <c r="AA5" s="11">
         <v>1.9274709999999999</v>
       </c>
-      <c r="AB5" s="13">
+      <c r="AB5" s="11">
         <v>1.982839</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AC5" s="11">
         <v>1.9670810000000001</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AD5" s="11">
         <v>1.824173</v>
       </c>
-      <c r="AE5" s="13">
+      <c r="AE5" s="11">
         <v>3.0692819999999998</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AF5" s="11">
         <v>1.502875</v>
       </c>
-      <c r="AG5" s="13">
+      <c r="AG5" s="11">
         <v>1.83846</v>
       </c>
-      <c r="AH5" s="13">
+      <c r="AH5" s="11">
         <v>2.1186280000000002</v>
       </c>
-      <c r="AI5" s="13">
+      <c r="AI5" s="11">
         <v>2.1412900000000001</v>
       </c>
-      <c r="AJ5" s="13">
+      <c r="AJ5" s="11">
         <v>0.75</v>
       </c>
-      <c r="AK5" s="13">
+      <c r="AK5" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="b">
+      <c r="A6" s="5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>15</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>4.24717961227545E-2</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="E6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="11">
         <v>1.89743589743589</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="11">
         <v>550</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="11">
         <v>0.52702702702702697</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <v>0.580952380952381</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="11">
         <v>3</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="11">
         <v>12.066666666666601</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="11">
         <v>0.95512820512820495</v>
       </c>
-      <c r="R6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="13" t="s">
+      <c r="R6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13">
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11">
         <v>0.43095238095238098</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="Z6" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="AA6" s="13">
+      <c r="AA6" s="11">
         <v>2.938329</v>
       </c>
-      <c r="AB6" s="13">
+      <c r="AB6" s="11">
         <v>3.318336</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6" s="11">
         <v>2.9840520000000001</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AD6" s="11">
         <v>3.0544220000000002</v>
       </c>
-      <c r="AE6" s="13">
+      <c r="AE6" s="11">
         <v>4.8090339999999996</v>
       </c>
-      <c r="AF6" s="13">
+      <c r="AF6" s="11">
         <v>2.524035</v>
       </c>
-      <c r="AG6" s="13">
+      <c r="AG6" s="11">
         <v>3.0735709999999998</v>
       </c>
-      <c r="AH6" s="13">
+      <c r="AH6" s="11">
         <v>2.948156</v>
       </c>
-      <c r="AI6" s="13">
+      <c r="AI6" s="11">
         <v>3.4914459999999998</v>
       </c>
-      <c r="AJ6" s="13">
+      <c r="AJ6" s="11">
         <v>1.8335440000000001</v>
       </c>
-      <c r="AK6" s="13">
+      <c r="AK6" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="b">
+      <c r="A7" s="5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>15</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>6.40584927729142E-2</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="E7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <v>1.7435897435897401</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
         <v>922</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="11">
         <v>0.57352941176470495</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <v>0.60952380952380902</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <v>3</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="11">
         <v>12.8</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="11">
         <v>0.96282051282051195</v>
       </c>
-      <c r="R7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" s="13" t="s">
+      <c r="R7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13" t="s">
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="11">
         <v>1.4235230000000001</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="11">
         <v>1.791223</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="11">
         <v>1.989195</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="11">
         <v>1.310135</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7" s="11">
         <v>1.935397</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AF7" s="11">
         <v>1.374107</v>
       </c>
-      <c r="AG7" s="13">
+      <c r="AG7" s="11">
         <v>1.4442820000000001</v>
       </c>
-      <c r="AH7" s="13">
+      <c r="AH7" s="11">
         <v>1.4696130000000001</v>
       </c>
-      <c r="AI7" s="13">
+      <c r="AI7" s="11">
         <v>1.7837609999999999</v>
       </c>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13">
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="b">
+      <c r="A8" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>15</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>3.7009306772435503E-2</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="E8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <v>1.7692307692307601</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="11">
         <v>828</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="11">
         <v>0.56521739130434701</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="11">
         <v>0.65714285714285703</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="11">
         <v>13.066666666666601</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="11">
         <v>0.96153846153846101</v>
       </c>
-      <c r="R8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="13" t="s">
+      <c r="R8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13" t="s">
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AA8" s="11">
         <v>1.778764</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AB8" s="11">
         <v>1.8056270000000001</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8" s="11">
         <v>1.186439</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8" s="11">
         <v>1.4321550000000001</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AE8" s="11">
         <v>3.6310579999999999</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AF8" s="11">
         <v>0.88914899999999997</v>
       </c>
-      <c r="AG8" s="13">
+      <c r="AG8" s="11">
         <v>1.63283</v>
       </c>
-      <c r="AH8" s="13">
+      <c r="AH8" s="11">
         <v>1.7382820000000001</v>
       </c>
-      <c r="AI8" s="13">
+      <c r="AI8" s="11">
         <v>2.2192889999999998</v>
       </c>
-      <c r="AJ8" s="13">
+      <c r="AJ8" s="11">
         <v>0.54152599999999995</v>
       </c>
-      <c r="AK8" s="13">
+      <c r="AK8" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="b">
+      <c r="A9" s="5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>14</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>4.1325064397801203E-2</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="E9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <v>1.87179487179487</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="11">
         <v>586</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="11">
         <v>0.534246575342465</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="11">
         <v>0.64835164835164805</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <v>3</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="11">
         <v>12.9285714285714</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="11">
         <v>0.95641025641025601</v>
       </c>
-      <c r="R9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="13" t="s">
+      <c r="R9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="T9" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="W9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13">
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11">
         <v>0.43095238095238098</v>
       </c>
-      <c r="Z9" s="13" t="s">
+      <c r="Z9" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AA9" s="11">
         <v>1.340465</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AB9" s="11">
         <v>4.3177950000000003</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9" s="11">
         <v>1.936531</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9" s="11">
         <v>4.2427910000000004</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AE9" s="11">
         <v>2.9195570000000002</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AF9" s="11">
         <v>1.539169</v>
       </c>
-      <c r="AG9" s="13">
+      <c r="AG9" s="11">
         <v>1.3787830000000001</v>
       </c>
-      <c r="AH9" s="13">
+      <c r="AH9" s="11">
         <v>1.481744</v>
       </c>
-      <c r="AI9" s="13">
+      <c r="AI9" s="11">
         <v>2.0562100000000001</v>
       </c>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13">
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="b">
+      <c r="A10" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>13</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>1.9230215936670701E-2</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="E10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <v>1.84615384615384</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <v>512</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="11">
         <v>0.54166666666666596</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <v>0.75641025641025605</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <v>3</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <v>13.846153846153801</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="11">
         <v>0.95769230769230695</v>
       </c>
-      <c r="R10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="13" t="s">
+      <c r="R10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="U10" s="13" t="s">
+      <c r="U10" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="W10" s="13" t="s">
+      <c r="W10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13">
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11">
         <v>0.43269230769230699</v>
       </c>
-      <c r="Z10" s="13" t="s">
+      <c r="Z10" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AA10" s="11">
         <v>1.4139600000000001</v>
       </c>
-      <c r="AB10" s="13">
+      <c r="AB10" s="11">
         <v>4.3111280000000001</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AC10" s="11">
         <v>2.4311430000000001</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AD10" s="11">
         <v>1.331356</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="AE10" s="11">
         <v>2.714728</v>
       </c>
-      <c r="AF10" s="13">
+      <c r="AF10" s="11">
         <v>1.8936710000000001</v>
       </c>
-      <c r="AG10" s="13">
+      <c r="AG10" s="11">
         <v>1.5233939999999999</v>
       </c>
-      <c r="AH10" s="13">
+      <c r="AH10" s="11">
         <v>1.543296</v>
       </c>
-      <c r="AI10" s="13">
+      <c r="AI10" s="11">
         <v>1.61538</v>
       </c>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13">
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="b">
+      <c r="A11" s="5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>12</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>5.9212155113891503E-2</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="E11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="11">
         <v>2.07692307692307</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="11">
         <v>1348</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="11">
         <v>0.48148148148148101</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="11">
         <v>0.62121212121212099</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <v>4</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="11">
         <v>11.8333333333333</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="11">
         <v>0.94615384615384601</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="13" t="s">
+      <c r="R11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="U11" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13" t="s">
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AA11" s="11">
         <v>1.354579</v>
       </c>
-      <c r="AB11" s="13">
+      <c r="AB11" s="11">
         <v>1.3677809999999999</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AC11" s="11">
         <v>1.4387270000000001</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AD11" s="11">
         <v>5</v>
       </c>
-      <c r="AE11" s="13">
+      <c r="AE11" s="11">
         <v>2.9837099999999999</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="AF11" s="11">
         <v>5</v>
       </c>
-      <c r="AG11" s="13">
+      <c r="AG11" s="11">
         <v>5</v>
       </c>
-      <c r="AH11" s="13">
+      <c r="AH11" s="11">
         <v>1.470113</v>
       </c>
-      <c r="AI11" s="13">
+      <c r="AI11" s="11">
         <v>1.77007</v>
       </c>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13">
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="b">
+      <c r="A12" s="5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>12</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>5.9212155113891503E-2</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="19" t="s">
+      <c r="E12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="11">
         <v>2.07692307692307</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="11">
         <v>1348</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="11">
         <v>0.48148148148148101</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="11">
         <v>0.62121212121212099</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <v>4</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="11">
         <v>11.8333333333333</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="11">
         <v>0.94615384615384601</v>
       </c>
-      <c r="R12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="13" t="s">
+      <c r="R12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="U12" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13" t="s">
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="11">
         <v>1.5607500000000001</v>
       </c>
-      <c r="AB12" s="13">
+      <c r="AB12" s="11">
         <v>1.4533799999999999</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC12" s="11">
         <v>1.796929</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AD12" s="11">
         <v>5</v>
       </c>
-      <c r="AE12" s="13">
+      <c r="AE12" s="11">
         <v>4.7069640000000001</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AF12" s="11">
         <v>5</v>
       </c>
-      <c r="AG12" s="13">
+      <c r="AG12" s="11">
         <v>5</v>
       </c>
-      <c r="AH12" s="13">
+      <c r="AH12" s="11">
         <v>1.4515150000000001</v>
       </c>
-      <c r="AI12" s="13">
+      <c r="AI12" s="11">
         <v>1.9301109999999999</v>
       </c>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13">
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="b">
+      <c r="A13" s="5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>11</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>9.6706452912667704E-2</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="19" t="s">
+      <c r="E13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="11">
         <v>1.92307692307692</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="11">
         <v>1046</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="11">
         <v>0.52</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="11">
         <v>0.472727272727272</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="11">
         <v>3</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="11">
         <v>11.545454545454501</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="11">
         <v>0.95384615384615301</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="13" t="s">
+      <c r="R13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="U13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13" t="s">
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="11">
         <v>2.6044049999999999</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AB13" s="11">
         <v>2.7889889999999999</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13" s="11">
         <v>2.3246169999999999</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AD13" s="11">
         <v>2.4383360000000001</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AE13" s="11">
         <v>3.7910780000000002</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AF13" s="11">
         <v>4.4455580000000001</v>
       </c>
-      <c r="AG13" s="13">
+      <c r="AG13" s="11">
         <v>2.4920580000000001</v>
       </c>
-      <c r="AH13" s="13">
+      <c r="AH13" s="11">
         <v>2.5257369999999999</v>
       </c>
-      <c r="AI13" s="13">
+      <c r="AI13" s="11">
         <v>3.1562290000000002</v>
       </c>
-      <c r="AJ13" s="13">
+      <c r="AJ13" s="11">
         <v>1.340222</v>
       </c>
-      <c r="AK13" s="13">
+      <c r="AK13" s="11">
         <v>4.8227460000000004</v>
       </c>
     </row>
     <row r="14" spans="1:37" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="b">
+      <c r="A14" s="14" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>11</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>4.61107453253203E-2</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="20" t="s">
+      <c r="E14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="12">
         <v>2.1282051282051202</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="12">
         <v>1056</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="12">
         <v>0.469879518072289</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="12">
         <v>0.63636363636363602</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="12">
         <v>4</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="12">
         <v>11.636363636363599</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="12">
         <v>0.94358974358974301</v>
       </c>
-      <c r="R14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" s="14" t="s">
+      <c r="R14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="T14" s="14" t="s">
+      <c r="T14" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="U14" s="14" t="s">
+      <c r="U14" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14" t="s">
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AA14" s="12">
         <v>1.2595270000000001</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AB14" s="12">
         <v>1.2389920000000001</v>
       </c>
-      <c r="AC14" s="14">
+      <c r="AC14" s="12">
         <v>1.2205360000000001</v>
       </c>
-      <c r="AD14" s="14">
+      <c r="AD14" s="12">
         <v>5</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AE14" s="12">
         <v>2.1623190000000001</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AF14" s="12">
         <v>5</v>
       </c>
-      <c r="AG14" s="14">
+      <c r="AG14" s="12">
         <v>5</v>
       </c>
-      <c r="AH14" s="14">
+      <c r="AH14" s="12">
         <v>1.136201</v>
       </c>
-      <c r="AI14" s="14">
+      <c r="AI14" s="12">
         <v>1.4416310000000001</v>
       </c>
-      <c r="AJ14" s="14">
+      <c r="AJ14" s="12">
         <v>0.46875</v>
       </c>
-      <c r="AK14" s="14">
+      <c r="AK14" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="b">
+      <c r="A15" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>10</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>2.19622912923059E-2</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="18" t="s">
+      <c r="E15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="10">
         <v>2.1025641025641</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="10">
         <v>352</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="10">
         <v>0.47560975609756001</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="10">
         <v>0.57777777777777695</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="10">
         <v>4</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="10">
         <v>10.8</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="10">
         <v>0.94487179487179396</v>
       </c>
-      <c r="R15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="12" t="s">
+      <c r="R15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="T15" s="12" t="s">
+      <c r="T15" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="U15" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12" t="s">
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA15" s="10">
         <v>1.675673</v>
       </c>
-      <c r="AB15" s="12">
+      <c r="AB15" s="10">
         <v>1.987544</v>
       </c>
-      <c r="AC15" s="12">
+      <c r="AC15" s="10">
         <v>1.6704570000000001</v>
       </c>
-      <c r="AD15" s="12">
+      <c r="AD15" s="10">
         <v>1.6240049999999999</v>
       </c>
-      <c r="AE15" s="12">
+      <c r="AE15" s="10">
         <v>4.4519209999999996</v>
       </c>
-      <c r="AF15" s="12">
+      <c r="AF15" s="10">
         <v>1.9077139999999999</v>
       </c>
-      <c r="AG15" s="12">
+      <c r="AG15" s="10">
         <v>2.080908</v>
       </c>
-      <c r="AH15" s="12">
+      <c r="AH15" s="10">
         <v>1.9152690000000001</v>
       </c>
-      <c r="AI15" s="12">
+      <c r="AI15" s="10">
         <v>5</v>
       </c>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12">
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="b">
+      <c r="A16" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>1.64286379612122E-2</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="19" t="s">
+      <c r="E16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="11">
         <v>2.1538461538461502</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="11">
         <v>184</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="11">
         <v>0.46428571428571402</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="11">
         <v>0.57777777777777695</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="11">
         <v>4</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="11">
         <v>10.4</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="11">
         <v>0.94230769230769196</v>
       </c>
-      <c r="R16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="13" t="s">
+      <c r="R16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="U16" s="13" t="s">
+      <c r="U16" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13" t="s">
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="11">
         <v>2.3638669999999999</v>
       </c>
-      <c r="AB16" s="13">
+      <c r="AB16" s="11">
         <v>4.6757150000000003</v>
       </c>
-      <c r="AC16" s="13">
+      <c r="AC16" s="11">
         <v>2.1798190000000002</v>
       </c>
-      <c r="AD16" s="13">
+      <c r="AD16" s="11">
         <v>3.9703490000000001</v>
       </c>
-      <c r="AE16" s="13">
+      <c r="AE16" s="11">
         <v>4.5745779999999998</v>
       </c>
-      <c r="AF16" s="13">
+      <c r="AF16" s="11">
         <v>2.9411040000000002</v>
       </c>
-      <c r="AG16" s="13">
+      <c r="AG16" s="11">
         <v>5</v>
       </c>
-      <c r="AH16" s="13">
+      <c r="AH16" s="11">
         <v>2.3035160000000001</v>
       </c>
-      <c r="AI16" s="13">
+      <c r="AI16" s="11">
         <v>2.6247349999999998</v>
       </c>
-      <c r="AJ16" s="13">
+      <c r="AJ16" s="11">
         <v>1.0075369999999999</v>
       </c>
-      <c r="AK16" s="13">
+      <c r="AK16" s="11">
         <v>4.4444840000000001</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="b">
+      <c r="A17" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>9</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>1.6869095816464199E-4</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="19" t="s">
+      <c r="E17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="11">
         <v>2.1538461538461502</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="11">
         <v>2</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="11">
         <v>0.46428571428571402</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="11">
         <v>0.97222222222222199</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="11">
         <v>4</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="11">
         <v>14.5555555555555</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="11">
         <v>0.94230769230769196</v>
       </c>
-      <c r="R17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S17" s="13" t="s">
+      <c r="R17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="U17" s="13" t="s">
+      <c r="U17" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13" t="s">
+      <c r="V17" s="11"/>
+      <c r="W17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13">
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11">
         <v>0.58222222222222197</v>
       </c>
-      <c r="Z17" s="13" t="s">
+      <c r="Z17" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AA17" s="11">
         <v>1.404717</v>
       </c>
-      <c r="AB17" s="13">
+      <c r="AB17" s="11">
         <v>1.48169</v>
       </c>
-      <c r="AC17" s="13">
+      <c r="AC17" s="11">
         <v>0.90296399999999999</v>
       </c>
-      <c r="AD17" s="13">
+      <c r="AD17" s="11">
         <v>4.1742520000000001</v>
       </c>
-      <c r="AE17" s="13">
+      <c r="AE17" s="11">
         <v>3.9309090000000002</v>
       </c>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13">
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11">
         <v>1.190051</v>
       </c>
-      <c r="AH17" s="13">
+      <c r="AH17" s="11">
         <v>1.776586</v>
       </c>
-      <c r="AI17" s="13">
+      <c r="AI17" s="11">
         <v>1.9500729999999999</v>
       </c>
-      <c r="AJ17" s="13">
+      <c r="AJ17" s="11">
         <v>0.65625</v>
       </c>
-      <c r="AK17" s="13">
+      <c r="AK17" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="b">
+      <c r="A18" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>8</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>0</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="19" t="s">
+      <c r="E18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="11">
         <v>2.17948717948717</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="11">
         <v>0</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="11">
         <v>0.45882352941176402</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="11">
         <v>1</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="11">
         <v>4</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="11">
         <v>14.5</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="11">
         <v>0.94102564102564101</v>
       </c>
-      <c r="R18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18" s="13" t="s">
+      <c r="R18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="U18" s="13" t="s">
+      <c r="U18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="V18" s="13" t="s">
+      <c r="V18" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="W18" s="13" t="s">
+      <c r="W18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13">
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Z18" s="13" t="s">
+      <c r="Z18" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AA18" s="13">
+      <c r="AA18" s="11">
         <v>1.749396</v>
       </c>
-      <c r="AB18" s="13">
+      <c r="AB18" s="11">
         <v>4.3524029999999998</v>
       </c>
-      <c r="AC18" s="13">
+      <c r="AC18" s="11">
         <v>1.2830630000000001</v>
       </c>
-      <c r="AD18" s="13">
+      <c r="AD18" s="11">
         <v>4.2852790000000001</v>
       </c>
-      <c r="AE18" s="13">
+      <c r="AE18" s="11">
         <v>3.6083229999999999</v>
       </c>
-      <c r="AF18" s="13">
+      <c r="AF18" s="11">
         <v>1.2164600000000001</v>
       </c>
-      <c r="AG18" s="13">
+      <c r="AG18" s="11">
         <v>1.613551</v>
       </c>
-      <c r="AH18" s="13">
+      <c r="AH18" s="11">
         <v>1.5168950000000001</v>
       </c>
-      <c r="AI18" s="13">
+      <c r="AI18" s="11">
         <v>2.2681939999999998</v>
       </c>
-      <c r="AJ18" s="13">
+      <c r="AJ18" s="11">
         <v>0.61852499999999999</v>
       </c>
-      <c r="AK18" s="13">
+      <c r="AK18" s="11">
         <v>4.7754300000000001</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="b">
+      <c r="A19" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>7</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>1.25773911199012E-2</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="19" t="s">
+      <c r="E19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="11">
         <v>2.07692307692307</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="11">
         <v>142</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="11">
         <v>0.48148148148148101</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="11">
         <v>0.71428571428571397</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="11">
         <v>3</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="11">
         <v>13.857142857142801</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="11">
         <v>0.94615384615384601</v>
       </c>
-      <c r="R19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" s="13" t="s">
+      <c r="R19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="T19" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="U19" s="13" t="s">
+      <c r="U19" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13" t="s">
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AA19" s="11">
         <v>2.1042160000000001</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AB19" s="11">
         <v>2.4836200000000002</v>
       </c>
-      <c r="AC19" s="13">
+      <c r="AC19" s="11">
         <v>1.563496</v>
       </c>
-      <c r="AD19" s="13">
+      <c r="AD19" s="11">
         <v>1.597205</v>
       </c>
-      <c r="AE19" s="13">
+      <c r="AE19" s="11">
         <v>3.957951</v>
       </c>
-      <c r="AF19" s="13">
+      <c r="AF19" s="11">
         <v>1.3577920000000001</v>
       </c>
-      <c r="AG19" s="13">
+      <c r="AG19" s="11">
         <v>1.673225</v>
       </c>
-      <c r="AH19" s="13">
+      <c r="AH19" s="11">
         <v>1.7391890000000001</v>
       </c>
-      <c r="AI19" s="13">
+      <c r="AI19" s="11">
         <v>2.7821940000000001</v>
       </c>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13">
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="b">
+      <c r="A20" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>7</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <v>1.2145748987854201E-2</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="19" t="s">
+      <c r="E20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="11">
         <v>2.8205128205128198</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="11">
         <v>24</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="11">
         <v>0.354545454545454</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="11">
         <v>0.71428571428571397</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="11">
         <v>5</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="11">
         <v>8</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="11">
         <v>0.90897435897435896</v>
       </c>
-      <c r="R20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S20" s="13" t="s">
+      <c r="R20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="U20" s="13" t="s">
+      <c r="U20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13" t="s">
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AA20" s="13">
+      <c r="AA20" s="11">
         <v>3.5119940000000001</v>
       </c>
-      <c r="AB20" s="13">
+      <c r="AB20" s="11">
         <v>2.2829609999999998</v>
       </c>
-      <c r="AC20" s="13">
+      <c r="AC20" s="11">
         <v>2.0627309999999999</v>
       </c>
-      <c r="AD20" s="13">
+      <c r="AD20" s="11">
         <v>5</v>
       </c>
-      <c r="AE20" s="13">
+      <c r="AE20" s="11">
         <v>4.4787150000000002</v>
       </c>
-      <c r="AF20" s="13">
+      <c r="AF20" s="11">
         <v>5</v>
       </c>
-      <c r="AG20" s="13">
+      <c r="AG20" s="11">
         <v>5</v>
       </c>
-      <c r="AH20" s="13">
+      <c r="AH20" s="11">
         <v>2.394164</v>
       </c>
-      <c r="AI20" s="13">
+      <c r="AI20" s="11">
         <v>4.5881869999999996</v>
       </c>
-      <c r="AJ20" s="13">
+      <c r="AJ20" s="11">
         <v>0.61905500000000002</v>
       </c>
-      <c r="AK20" s="13">
+      <c r="AK20" s="11">
         <v>4.5137020000000003</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="b">
+      <c r="A21" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>6</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <v>3.3197163752088601E-2</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="19" t="s">
+      <c r="E21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="11">
         <v>2.5128205128205101</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="11">
         <v>490</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="11">
         <v>0.397959183673469</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="11">
         <v>0.4</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="11">
         <v>4</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="11">
         <v>8.1666666666666607</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="11">
         <v>0.92435897435897396</v>
       </c>
-      <c r="R21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S21" s="13" t="s">
+      <c r="R21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="U21" s="13" t="s">
+      <c r="U21" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13" t="s">
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AA21" s="11">
         <v>1.7769820000000001</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AB21" s="11">
         <v>3.0465209999999998</v>
       </c>
-      <c r="AC21" s="13">
+      <c r="AC21" s="11">
         <v>1.5987690000000001</v>
       </c>
-      <c r="AD21" s="13">
+      <c r="AD21" s="11">
         <v>1.6921470000000001</v>
       </c>
-      <c r="AE21" s="13">
+      <c r="AE21" s="11">
         <v>3.3274970000000001</v>
       </c>
-      <c r="AF21" s="13">
+      <c r="AF21" s="11">
         <v>1.307245</v>
       </c>
-      <c r="AG21" s="13">
+      <c r="AG21" s="11">
         <v>1.7737449999999999</v>
       </c>
-      <c r="AH21" s="13">
+      <c r="AH21" s="11">
         <v>1.9105810000000001</v>
       </c>
-      <c r="AI21" s="13">
+      <c r="AI21" s="11">
         <v>4.7424270000000002</v>
       </c>
-      <c r="AJ21" s="13">
+      <c r="AJ21" s="11">
         <v>1.1144590000000001</v>
       </c>
-      <c r="AK21" s="13">
+      <c r="AK21" s="11">
         <v>2.8065020000000001</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="b">
+      <c r="A22" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>6</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>8.4907782276203304E-4</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="19" t="s">
+      <c r="E22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="11">
         <v>2.4615384615384599</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="11">
         <v>8</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="11">
         <v>0.40625</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="11">
         <v>0.86666666666666603</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="11">
         <v>4</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="11">
         <v>10.3333333333333</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="11">
         <v>0.92692307692307696</v>
       </c>
-      <c r="R22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S22" s="13" t="s">
+      <c r="R22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="T22" s="13" t="s">
+      <c r="T22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="U22" s="13" t="s">
+      <c r="U22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13" t="s">
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AA22" s="11">
         <v>1.242289</v>
       </c>
-      <c r="AB22" s="13">
+      <c r="AB22" s="11">
         <v>1.9573100000000001</v>
       </c>
-      <c r="AC22" s="13">
+      <c r="AC22" s="11">
         <v>1.046978</v>
       </c>
-      <c r="AD22" s="13">
+      <c r="AD22" s="11">
         <v>0.91145399999999999</v>
       </c>
-      <c r="AE22" s="13">
+      <c r="AE22" s="11">
         <v>5</v>
       </c>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13">
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11">
         <v>1.4337949999999999</v>
       </c>
-      <c r="AH22" s="13">
+      <c r="AH22" s="11">
         <v>1.42249</v>
       </c>
-      <c r="AI22" s="13">
+      <c r="AI22" s="11">
         <v>1.4886200000000001</v>
       </c>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13">
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11">
         <v>1.796448</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="b">
+      <c r="A23" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>6</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="11">
         <v>0</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="19" t="s">
+      <c r="E23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="11">
         <v>2.87179487179487</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="11">
         <v>0</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="11">
         <v>0.34821428571428498</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="11">
         <v>1</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="11">
         <v>5</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="11">
         <v>9</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="11">
         <v>0.90641025641025597</v>
       </c>
-      <c r="R23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S23" s="13" t="s">
+      <c r="R23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="T23" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="U23" s="13" t="s">
+      <c r="U23" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13" t="s">
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AA23" s="11">
         <v>1.0320720000000001</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB23" s="11">
         <v>1.3373409999999999</v>
       </c>
-      <c r="AC23" s="13">
+      <c r="AC23" s="11">
         <v>1.5695239999999999</v>
       </c>
-      <c r="AD23" s="13">
+      <c r="AD23" s="11">
         <v>3.5085950000000001</v>
       </c>
-      <c r="AE23" s="13">
+      <c r="AE23" s="11">
         <v>2.8772500000000001</v>
       </c>
-      <c r="AF23" s="13">
+      <c r="AF23" s="11">
         <v>0.64022599999999996</v>
       </c>
-      <c r="AG23" s="13">
+      <c r="AG23" s="11">
         <v>4.2489710000000001</v>
       </c>
-      <c r="AH23" s="13">
+      <c r="AH23" s="11">
         <v>1.0461819999999999</v>
       </c>
-      <c r="AI23" s="13">
+      <c r="AI23" s="11">
         <v>1.256473</v>
       </c>
-      <c r="AJ23" s="13">
+      <c r="AJ23" s="11">
         <v>0.328125</v>
       </c>
-      <c r="AK23" s="13">
+      <c r="AK23" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="b">
+      <c r="A24" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>6</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="11">
         <v>0</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="19" t="s">
+      <c r="E24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="11">
         <v>2.87179487179487</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="11">
         <v>0</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="11">
         <v>0.34821428571428498</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="11">
         <v>1</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="11">
         <v>5</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="11">
         <v>9</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="11">
         <v>0.90641025641025597</v>
       </c>
-      <c r="R24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S24" s="13" t="s">
+      <c r="R24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="T24" s="13" t="s">
+      <c r="T24" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="U24" s="13" t="s">
+      <c r="U24" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13" t="s">
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="11">
         <v>1.000292</v>
       </c>
-      <c r="AB24" s="13">
+      <c r="AB24" s="11">
         <v>1.004418</v>
       </c>
-      <c r="AC24" s="13">
+      <c r="AC24" s="11">
         <v>1.55844</v>
       </c>
-      <c r="AD24" s="13">
+      <c r="AD24" s="11">
         <v>5</v>
       </c>
-      <c r="AE24" s="13">
+      <c r="AE24" s="11">
         <v>2.3674759999999999</v>
       </c>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13">
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11">
         <v>5</v>
       </c>
-      <c r="AH24" s="13">
+      <c r="AH24" s="11">
         <v>0.67701699999999998</v>
       </c>
-      <c r="AI24" s="13">
+      <c r="AI24" s="11">
         <v>1.2537940000000001</v>
       </c>
-      <c r="AJ24" s="13">
+      <c r="AJ24" s="11">
         <v>0.9375</v>
       </c>
-      <c r="AK24" s="13">
+      <c r="AK24" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="b">
+      <c r="A25" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>6</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="11">
         <v>0</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="19" t="s">
+      <c r="E25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="11">
         <v>2.87179487179487</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="11">
         <v>0</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="11">
         <v>0.34821428571428498</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="11">
         <v>1</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="11">
         <v>5</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="11">
         <v>9</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="11">
         <v>0.90641025641025597</v>
       </c>
-      <c r="R25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S25" s="13" t="s">
+      <c r="R25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="T25" s="13" t="s">
+      <c r="T25" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="U25" s="13" t="s">
+      <c r="U25" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13" t="s">
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="AA25" s="13">
+      <c r="AA25" s="11">
         <v>1.2611840000000001</v>
       </c>
-      <c r="AB25" s="13">
+      <c r="AB25" s="11">
         <v>1.6078920000000001</v>
       </c>
-      <c r="AC25" s="13">
+      <c r="AC25" s="11">
         <v>2.6079599999999998</v>
       </c>
-      <c r="AD25" s="13">
+      <c r="AD25" s="11">
         <v>5</v>
       </c>
-      <c r="AE25" s="13">
+      <c r="AE25" s="11">
         <v>1.778211</v>
       </c>
-      <c r="AF25" s="13">
+      <c r="AF25" s="11">
         <v>1.719711</v>
       </c>
-      <c r="AG25" s="13">
+      <c r="AG25" s="11">
         <v>5</v>
       </c>
-      <c r="AH25" s="13">
+      <c r="AH25" s="11">
         <v>0.93972199999999995</v>
       </c>
-      <c r="AI25" s="13">
+      <c r="AI25" s="11">
         <v>1.5204679999999999</v>
       </c>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13">
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="b">
+      <c r="A26" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <v>5</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="11">
         <v>0</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="19" t="s">
+      <c r="E26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="11">
         <v>2.4871794871794801</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="11">
         <v>0</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="11">
         <v>0.402061855670103</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="11">
         <v>1</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="11">
         <v>4</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="11">
         <v>11.8</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="11">
         <v>0.92564102564102502</v>
       </c>
-      <c r="R26" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S26" s="13" t="s">
+      <c r="R26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="T26" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="U26" s="13" t="s">
+      <c r="U26" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13" t="s">
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="11">
         <v>0.95041699999999996</v>
       </c>
-      <c r="AB26" s="13">
+      <c r="AB26" s="11">
         <v>1.2790699999999999</v>
       </c>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13">
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11">
         <v>0.93422300000000003</v>
       </c>
-      <c r="AE26" s="13">
+      <c r="AE26" s="11">
         <v>3.4555980000000002</v>
       </c>
-      <c r="AF26" s="13">
+      <c r="AF26" s="11">
         <v>0.91802600000000001</v>
       </c>
-      <c r="AG26" s="13">
+      <c r="AG26" s="11">
         <v>1.3736139999999999</v>
       </c>
-      <c r="AH26" s="13">
+      <c r="AH26" s="11">
         <v>1.3607940000000001</v>
       </c>
-      <c r="AI26" s="13">
+      <c r="AI26" s="11">
         <v>1.27349</v>
       </c>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13">
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11">
         <v>1.4153230000000001</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="b">
+      <c r="A27" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="11">
         <v>4</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="11">
         <v>5.7706620864515501E-2</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="19" t="s">
+      <c r="E27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="11">
         <v>2.1538461538461502</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="11">
         <v>234</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="11">
         <v>0.46428571428571402</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="11">
         <v>0.16666666666666599</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="11">
         <v>3</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="11">
         <v>10.5</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="11">
         <v>0.94230769230769196</v>
       </c>
-      <c r="R27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27" s="13" t="s">
+      <c r="R27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="U27" s="13" t="s">
+      <c r="U27" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="V27" s="13" t="s">
+      <c r="V27" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="W27" s="13" t="s">
+      <c r="W27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13">
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11">
         <v>0.37037037037037002</v>
       </c>
-      <c r="Z27" s="13" t="s">
+      <c r="Z27" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="AA27" s="13">
+      <c r="AA27" s="11">
         <v>1.6758960000000001</v>
       </c>
-      <c r="AB27" s="13">
+      <c r="AB27" s="11">
         <v>1.8093170000000001</v>
       </c>
-      <c r="AC27" s="13">
+      <c r="AC27" s="11">
         <v>1.3216289999999999</v>
       </c>
-      <c r="AD27" s="13">
+      <c r="AD27" s="11">
         <v>1.2076450000000001</v>
       </c>
-      <c r="AE27" s="13">
+      <c r="AE27" s="11">
         <v>4.6590600000000002</v>
       </c>
-      <c r="AF27" s="13">
+      <c r="AF27" s="11">
         <v>0.94493499999999997</v>
       </c>
-      <c r="AG27" s="13">
+      <c r="AG27" s="11">
         <v>1.702194</v>
       </c>
-      <c r="AH27" s="13">
+      <c r="AH27" s="11">
         <v>1.5425489999999999</v>
       </c>
-      <c r="AI27" s="13">
+      <c r="AI27" s="11">
         <v>2.0669059999999999</v>
       </c>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13">
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="b">
+      <c r="A28" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>4</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="11">
         <v>7.3054187236104406E-2</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="19" t="s">
+      <c r="E28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="11">
         <v>2.4871794871794801</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="11">
         <v>798</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="11">
         <v>0.402061855670103</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="11">
         <v>0.16666666666666599</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="11">
         <v>4</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="11">
         <v>8</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="11">
         <v>0.92564102564102502</v>
       </c>
-      <c r="R28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S28" s="13" t="s">
+      <c r="R28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="T28" s="13" t="s">
+      <c r="T28" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="U28" s="13" t="s">
+      <c r="U28" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="V28" s="13" t="s">
+      <c r="V28" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="W28" s="13" t="s">
+      <c r="W28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13">
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11">
         <v>0.375</v>
       </c>
-      <c r="Z28" s="13" t="s">
+      <c r="Z28" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AA28" s="11">
         <v>2.2042869999999999</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AB28" s="11">
         <v>1.9251149999999999</v>
       </c>
-      <c r="AC28" s="13">
+      <c r="AC28" s="11">
         <v>1.829386</v>
       </c>
-      <c r="AD28" s="13">
+      <c r="AD28" s="11">
         <v>1.6075809999999999</v>
       </c>
-      <c r="AE28" s="13">
+      <c r="AE28" s="11">
         <v>4.5330399999999997</v>
       </c>
-      <c r="AF28" s="13">
+      <c r="AF28" s="11">
         <v>1.3786910000000001</v>
       </c>
-      <c r="AG28" s="13">
+      <c r="AG28" s="11">
         <v>1.8332649999999999</v>
       </c>
-      <c r="AH28" s="13">
+      <c r="AH28" s="11">
         <v>1.732953</v>
       </c>
-      <c r="AI28" s="13">
+      <c r="AI28" s="11">
         <v>2.1160559999999999</v>
       </c>
-      <c r="AJ28" s="13">
+      <c r="AJ28" s="11">
         <v>0.28125</v>
       </c>
-      <c r="AK28" s="13">
+      <c r="AK28" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="b">
+      <c r="A29" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <v>4</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="11">
         <v>4.08088987036355E-2</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="19" t="s">
+      <c r="E29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="11">
         <v>2.3589743589743501</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="11">
         <v>250</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="11">
         <v>0.42391304347825998</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="11">
         <v>0.16666666666666599</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="11">
         <v>4</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="11">
         <v>9.75</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="11">
         <v>0.93205128205128196</v>
       </c>
-      <c r="R29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S29" s="13" t="s">
+      <c r="R29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="T29" s="13" t="s">
+      <c r="T29" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="U29" s="13" t="s">
+      <c r="U29" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13" t="s">
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AA29" s="11">
         <v>1.1727099999999999</v>
       </c>
-      <c r="AB29" s="13">
+      <c r="AB29" s="11">
         <v>4.6181419999999997</v>
       </c>
-      <c r="AC29" s="13">
+      <c r="AC29" s="11">
         <v>0.76453099999999996</v>
       </c>
-      <c r="AD29" s="13">
+      <c r="AD29" s="11">
         <v>0.71083200000000002</v>
       </c>
-      <c r="AE29" s="13">
+      <c r="AE29" s="11">
         <v>1.9923249999999999</v>
       </c>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13">
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11">
         <v>1.2579100000000001</v>
       </c>
-      <c r="AH29" s="13">
+      <c r="AH29" s="11">
         <v>0.93150100000000002</v>
       </c>
-      <c r="AI29" s="13">
+      <c r="AI29" s="11">
         <v>2.3077960000000002</v>
       </c>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13">
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11">
         <v>1.821064</v>
       </c>
     </row>
     <row r="30" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="b">
+      <c r="A30" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="11">
         <v>4</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="11">
         <v>0</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="19" t="s">
+      <c r="E30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="11">
         <v>2.5641025641025599</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="11">
         <v>0</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="11">
         <v>0.38999999999999901</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="11">
         <v>1</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="11">
         <v>4</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="11">
         <v>11</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="11">
         <v>0.92179487179487096</v>
       </c>
-      <c r="R30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S30" s="13" t="s">
+      <c r="R30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="T30" s="13" t="s">
+      <c r="T30" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="U30" s="13" t="s">
+      <c r="U30" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13" t="s">
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="AA30" s="13">
+      <c r="AA30" s="11">
         <v>1.265091</v>
       </c>
-      <c r="AB30" s="13">
+      <c r="AB30" s="11">
         <v>2.605102</v>
       </c>
-      <c r="AC30" s="13">
+      <c r="AC30" s="11">
         <v>1.0954919999999999</v>
       </c>
-      <c r="AD30" s="13">
+      <c r="AD30" s="11">
         <v>1.1954070000000001</v>
       </c>
-      <c r="AE30" s="13">
+      <c r="AE30" s="11">
         <v>2.5776180000000002</v>
       </c>
-      <c r="AF30" s="13">
+      <c r="AF30" s="11">
         <v>0.89524000000000004</v>
       </c>
-      <c r="AG30" s="13">
+      <c r="AG30" s="11">
         <v>1.5268360000000001</v>
       </c>
-      <c r="AH30" s="13">
+      <c r="AH30" s="11">
         <v>1.2317659999999999</v>
       </c>
-      <c r="AI30" s="13">
+      <c r="AI30" s="11">
         <v>2.8143850000000001</v>
       </c>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13">
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11">
         <v>4.7681360000000002</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="b">
+      <c r="A31" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <v>3</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="11">
         <v>5.4577815381629799E-2</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="19" t="s">
+      <c r="E31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="11">
         <v>2.3333333333333299</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="11">
         <v>190</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="11">
         <v>0.42857142857142799</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="11">
         <v>0</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="11">
         <v>4</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="11">
         <v>9.3333333333333304</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="11">
         <v>0.93333333333333302</v>
       </c>
-      <c r="R31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S31" s="13" t="s">
+      <c r="R31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="T31" s="13" t="s">
+      <c r="T31" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="U31" s="13" t="s">
+      <c r="U31" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="V31" s="13" t="s">
+      <c r="V31" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="W31" s="13" t="s">
+      <c r="W31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X31" s="13" t="s">
+      <c r="X31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y31" s="13">
+      <c r="Y31" s="11">
         <v>0.37878787878787801</v>
       </c>
-      <c r="Z31" s="13" t="s">
+      <c r="Z31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AA31" s="13">
+      <c r="AA31" s="11">
         <v>2.9309470000000002</v>
       </c>
-      <c r="AB31" s="13">
+      <c r="AB31" s="11">
         <v>2.5800900000000002</v>
       </c>
-      <c r="AC31" s="13">
+      <c r="AC31" s="11">
         <v>2.2335940000000001</v>
       </c>
-      <c r="AD31" s="13">
+      <c r="AD31" s="11">
         <v>5</v>
       </c>
-      <c r="AE31" s="13">
+      <c r="AE31" s="11">
         <v>4.655678</v>
       </c>
-      <c r="AF31" s="13">
+      <c r="AF31" s="11">
         <v>1.9330000000000001</v>
       </c>
-      <c r="AG31" s="13">
+      <c r="AG31" s="11">
         <v>5</v>
       </c>
-      <c r="AH31" s="13">
+      <c r="AH31" s="11">
         <v>2.474904</v>
       </c>
-      <c r="AI31" s="13">
+      <c r="AI31" s="11">
         <v>3.8474810000000002</v>
       </c>
-      <c r="AJ31" s="13">
+      <c r="AJ31" s="11">
         <v>1.3448830000000001</v>
       </c>
-      <c r="AK31" s="13">
+      <c r="AK31" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="b">
+      <c r="A32" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="11">
         <v>3</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="11">
         <v>5.1282051282051197E-2</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="19" t="s">
+      <c r="E32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="11">
         <v>2.4358974358974299</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="11">
         <v>240</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="11">
         <v>0.41052631578947302</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="11">
         <v>0.33333333333333298</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="11">
         <v>4</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="11">
         <v>12.3333333333333</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="11">
         <v>0.92820512820512802</v>
       </c>
-      <c r="R32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S32" s="13" t="s">
+      <c r="R32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S32" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="T32" s="13" t="s">
+      <c r="T32" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="U32" s="13" t="s">
+      <c r="U32" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13" t="s">
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="AA32" s="13">
+      <c r="AA32" s="11">
         <v>4.0690109999999997</v>
       </c>
-      <c r="AB32" s="13">
+      <c r="AB32" s="11">
         <v>4.6095379999999997</v>
       </c>
-      <c r="AC32" s="13">
+      <c r="AC32" s="11">
         <v>1.413867</v>
       </c>
-      <c r="AD32" s="13">
+      <c r="AD32" s="11">
         <v>1.8595090000000001</v>
       </c>
-      <c r="AE32" s="13">
+      <c r="AE32" s="11">
         <v>2.7120739999999999</v>
       </c>
-      <c r="AF32" s="13">
+      <c r="AF32" s="11">
         <v>1.4080250000000001</v>
       </c>
-      <c r="AG32" s="13">
+      <c r="AG32" s="11">
         <v>1.587553</v>
       </c>
-      <c r="AH32" s="13">
+      <c r="AH32" s="11">
         <v>1.4144330000000001</v>
       </c>
-      <c r="AI32" s="13">
+      <c r="AI32" s="11">
         <v>2.509633</v>
       </c>
-      <c r="AJ32" s="13">
+      <c r="AJ32" s="11">
         <v>0.46875</v>
       </c>
-      <c r="AK32" s="13">
+      <c r="AK32" s="11">
         <v>3.9721510000000002</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="b">
+      <c r="A33" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="11">
         <v>2</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="11">
         <v>0</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="19" t="s">
+      <c r="E33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="11">
         <v>2.8205128205128198</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="11">
         <v>0</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="11">
         <v>0.354545454545454</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="11">
         <v>1</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="11">
         <v>4</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="11">
         <v>8.5</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="11">
         <v>0.90897435897435896</v>
       </c>
-      <c r="R33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S33" s="13" t="s">
+      <c r="R33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="T33" s="13" t="s">
+      <c r="T33" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="U33" s="13" t="s">
+      <c r="U33" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="V33" s="13" t="s">
+      <c r="V33" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="W33" s="13" t="s">
+      <c r="W33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13">
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11">
         <v>0.65384615384615297</v>
       </c>
-      <c r="Z33" s="13" t="s">
+      <c r="Z33" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AA33" s="13">
+      <c r="AA33" s="11">
         <v>1.283366</v>
       </c>
-      <c r="AB33" s="13">
+      <c r="AB33" s="11">
         <v>1.5105679999999999</v>
       </c>
-      <c r="AC33" s="13">
+      <c r="AC33" s="11">
         <v>1.205036</v>
       </c>
-      <c r="AD33" s="13">
+      <c r="AD33" s="11">
         <v>1.0798080000000001</v>
       </c>
-      <c r="AE33" s="13">
+      <c r="AE33" s="11">
         <v>3.219395</v>
       </c>
-      <c r="AF33" s="13">
+      <c r="AF33" s="11">
         <v>1.296592</v>
       </c>
-      <c r="AG33" s="13">
+      <c r="AG33" s="11">
         <v>1.342616</v>
       </c>
-      <c r="AH33" s="13">
+      <c r="AH33" s="11">
         <v>1.364571</v>
       </c>
-      <c r="AI33" s="13">
+      <c r="AI33" s="11">
         <v>1.9006890000000001</v>
       </c>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13">
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11">
         <v>4.3872070000000001</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="b">
+      <c r="A34" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="11">
         <v>2</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="13">
         <v>4.4984255510571199E-4</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="19" t="s">
+      <c r="E34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="11">
         <v>3.0512820512820502</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="11">
         <v>2</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="11">
         <v>0.32773109243697401</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="11">
         <v>0</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="11">
         <v>4</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="11">
         <v>4</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="11">
         <v>0.89743589743589702</v>
       </c>
-      <c r="R34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S34" s="13" t="s">
+      <c r="R34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S34" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="T34" s="13" t="s">
+      <c r="T34" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="U34" s="13" t="s">
+      <c r="U34" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13" t="s">
+      <c r="V34" s="11"/>
+      <c r="W34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13">
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11">
         <v>0.75</v>
       </c>
-      <c r="Z34" s="13" t="s">
+      <c r="Z34" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="AA34" s="13">
+      <c r="AA34" s="11">
         <v>1.2304740000000001</v>
       </c>
-      <c r="AB34" s="13">
+      <c r="AB34" s="11">
         <v>1.5550999999999999</v>
       </c>
-      <c r="AC34" s="13">
+      <c r="AC34" s="11">
         <v>1.343137</v>
       </c>
-      <c r="AD34" s="13">
+      <c r="AD34" s="11">
         <v>0.87268100000000004</v>
       </c>
-      <c r="AE34" s="13">
+      <c r="AE34" s="11">
         <v>2.4405640000000002</v>
       </c>
-      <c r="AF34" s="13">
+      <c r="AF34" s="11">
         <v>0.58487100000000003</v>
       </c>
-      <c r="AG34" s="13">
+      <c r="AG34" s="11">
         <v>1.3105880000000001</v>
       </c>
-      <c r="AH34" s="13">
+      <c r="AH34" s="11">
         <v>1.216539</v>
       </c>
-      <c r="AI34" s="13">
+      <c r="AI34" s="11">
         <v>1.4632179999999999</v>
       </c>
-      <c r="AJ34" s="13">
+      <c r="AJ34" s="11">
         <v>0.5625</v>
       </c>
-      <c r="AK34" s="13">
+      <c r="AK34" s="11">
         <v>4.7293760000000002</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="b">
+      <c r="A35" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="11">
         <v>2</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="11">
         <v>1.3495276653171301E-3</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="19" t="s">
+      <c r="E35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="11">
         <v>3.2564102564102502</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="11">
         <v>4</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="11">
         <v>0.30708661417322802</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="11">
         <v>0</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="11">
         <v>5</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="11">
         <v>5</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="11">
         <v>0.88717948717948703</v>
       </c>
-      <c r="R35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S35" s="13" t="s">
+      <c r="R35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S35" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="T35" s="13" t="s">
+      <c r="T35" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="U35" s="13" t="s">
+      <c r="U35" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13" t="s">
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AA35" s="13">
+      <c r="AA35" s="11">
         <v>2.012232</v>
       </c>
-      <c r="AB35" s="13">
+      <c r="AB35" s="11">
         <v>4.5308039999999998</v>
       </c>
-      <c r="AC35" s="13">
+      <c r="AC35" s="11">
         <v>1.380117</v>
       </c>
-      <c r="AD35" s="13">
+      <c r="AD35" s="11">
         <v>0.99219000000000002</v>
       </c>
-      <c r="AE35" s="13">
+      <c r="AE35" s="11">
         <v>2.5721690000000001</v>
       </c>
-      <c r="AF35" s="13">
+      <c r="AF35" s="11">
         <v>1.9375450000000001</v>
       </c>
-      <c r="AG35" s="13">
+      <c r="AG35" s="11">
         <v>1.1445399999999999</v>
       </c>
-      <c r="AH35" s="13">
+      <c r="AH35" s="11">
         <v>1.723239</v>
       </c>
-      <c r="AI35" s="13">
+      <c r="AI35" s="11">
         <v>5</v>
       </c>
-      <c r="AJ35" s="13">
+      <c r="AJ35" s="11">
         <v>0.75151500000000004</v>
       </c>
-      <c r="AK35" s="13">
+      <c r="AK35" s="11">
         <v>2.137791</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="b">
+      <c r="A36" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <v>2</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="13">
         <v>4.4984255510571199E-4</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="19" t="s">
+      <c r="E36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="11">
         <v>3.0512820512820502</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="11">
         <v>2</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="11">
         <v>0.32773109243697401</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="11">
         <v>0</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="11">
         <v>4</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="11">
         <v>4</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="11">
         <v>0.89743589743589702</v>
       </c>
-      <c r="R36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S36" s="13" t="s">
+      <c r="R36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S36" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="T36" s="13" t="s">
+      <c r="T36" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="U36" s="13" t="s">
+      <c r="U36" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13" t="s">
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AA36" s="13">
+      <c r="AA36" s="11">
         <v>1.1411230000000001</v>
       </c>
-      <c r="AB36" s="13">
+      <c r="AB36" s="11">
         <v>1.3725210000000001</v>
       </c>
-      <c r="AC36" s="13">
+      <c r="AC36" s="11">
         <v>1.4291579999999999</v>
       </c>
-      <c r="AD36" s="13">
+      <c r="AD36" s="11">
         <v>1.3602449999999999</v>
       </c>
-      <c r="AE36" s="13">
+      <c r="AE36" s="11">
         <v>4.6506970000000001</v>
       </c>
-      <c r="AF36" s="13">
+      <c r="AF36" s="11">
         <v>1.252165</v>
       </c>
-      <c r="AG36" s="13">
+      <c r="AG36" s="11">
         <v>1.4685550000000001</v>
       </c>
-      <c r="AH36" s="13">
+      <c r="AH36" s="11">
         <v>0.76952399999999999</v>
       </c>
-      <c r="AI36" s="13">
+      <c r="AI36" s="11">
         <v>1.6450979999999999</v>
       </c>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13">
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="b">
+      <c r="A37" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="11">
         <v>2</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="11">
         <v>0</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="19" t="s">
+      <c r="E37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="11">
         <v>2.4871794871794801</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="11">
         <v>0</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="11">
         <v>0.402061855670103</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="11">
         <v>1</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="11">
         <v>4</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="11">
         <v>18</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="11">
         <v>0.92564102564102502</v>
       </c>
-      <c r="R37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S37" s="13" t="s">
+      <c r="R37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S37" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="T37" s="13" t="s">
+      <c r="T37" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U37" s="13" t="s">
+      <c r="U37" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13" t="s">
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AA37" s="13">
+      <c r="AA37" s="11">
         <v>1.868913</v>
       </c>
-      <c r="AB37" s="13">
+      <c r="AB37" s="11">
         <v>4.7503260000000003</v>
       </c>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13">
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11">
         <v>0.76632400000000001</v>
       </c>
-      <c r="AE37" s="13">
+      <c r="AE37" s="11">
         <v>1.2279439999999999</v>
       </c>
-      <c r="AF37" s="13">
+      <c r="AF37" s="11">
         <v>0.59244699999999995</v>
       </c>
-      <c r="AG37" s="13">
+      <c r="AG37" s="11">
         <v>0.74665499999999996</v>
       </c>
-      <c r="AH37" s="13">
+      <c r="AH37" s="11">
         <v>0.1875</v>
       </c>
-      <c r="AI37" s="13">
+      <c r="AI37" s="11">
         <v>4.4203409999999996</v>
       </c>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="13">
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="b">
+      <c r="A38" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="11">
         <v>2</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="11">
         <v>0</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="19" t="s">
+      <c r="E38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="11">
         <v>2.6410256410256401</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="11">
         <v>0</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="11">
         <v>0.37864077669902901</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="11">
         <v>1</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="11">
         <v>4</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="11">
         <v>12.5</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="11">
         <v>0.91794871794871702</v>
       </c>
-      <c r="R38" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S38" s="13" t="s">
+      <c r="R38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S38" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="T38" s="13" t="s">
+      <c r="T38" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="U38" s="13" t="s">
+      <c r="U38" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13" t="s">
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="AA38" s="13">
+      <c r="AA38" s="11">
         <v>1.521309</v>
       </c>
-      <c r="AB38" s="13">
+      <c r="AB38" s="11">
         <v>1.809671</v>
       </c>
-      <c r="AC38" s="13">
+      <c r="AC38" s="11">
         <v>0.94303899999999996</v>
       </c>
-      <c r="AD38" s="13">
+      <c r="AD38" s="11">
         <v>1.056681</v>
       </c>
-      <c r="AE38" s="13">
+      <c r="AE38" s="11">
         <v>4.1802720000000004</v>
       </c>
-      <c r="AF38" s="13">
+      <c r="AF38" s="11">
         <v>1.0919749999999999</v>
       </c>
-      <c r="AG38" s="13">
+      <c r="AG38" s="11">
         <v>1.1754</v>
       </c>
-      <c r="AH38" s="13">
+      <c r="AH38" s="11">
         <v>1.1099429999999999</v>
       </c>
-      <c r="AI38" s="13">
+      <c r="AI38" s="11">
         <v>1.5966020000000001</v>
       </c>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13">
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="b">
+      <c r="A39" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="11">
         <v>1</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="11">
         <v>0</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="19" t="s">
+      <c r="E39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="11">
         <v>3.3076923076922999</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="11">
         <v>0</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="11">
         <v>0.30232558139534799</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="11">
         <v>0</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="11">
         <v>5</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="11">
         <v>3</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="11">
         <v>0.88461538461538403</v>
       </c>
-      <c r="R39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S39" s="13" t="s">
+      <c r="R39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S39" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="T39" s="13" t="s">
+      <c r="T39" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="U39" s="13" t="s">
+      <c r="U39" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13" t="s">
+      <c r="V39" s="11"/>
+      <c r="W39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13">
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11">
         <v>0</v>
       </c>
-      <c r="Z39" s="13" t="s">
+      <c r="Z39" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AA39" s="13">
+      <c r="AA39" s="11">
         <v>1.7203580000000001</v>
       </c>
-      <c r="AB39" s="13">
+      <c r="AB39" s="11">
         <v>1.7070989999999999</v>
       </c>
-      <c r="AC39" s="13">
+      <c r="AC39" s="11">
         <v>1.3531420000000001</v>
       </c>
-      <c r="AD39" s="13">
+      <c r="AD39" s="11">
         <v>1.374709</v>
       </c>
-      <c r="AE39" s="13">
+      <c r="AE39" s="11">
         <v>5</v>
       </c>
-      <c r="AF39" s="13">
+      <c r="AF39" s="11">
         <v>0.58453599999999994</v>
       </c>
-      <c r="AG39" s="13">
+      <c r="AG39" s="11">
         <v>1.4604239999999999</v>
       </c>
-      <c r="AH39" s="13">
+      <c r="AH39" s="11">
         <v>1.3858740000000001</v>
       </c>
-      <c r="AI39" s="13">
+      <c r="AI39" s="11">
         <v>1.952699</v>
       </c>
-      <c r="AJ39" s="13">
+      <c r="AJ39" s="11">
         <v>0.63328600000000002</v>
       </c>
-      <c r="AK39" s="13">
+      <c r="AK39" s="11">
         <v>3.9663499999999998</v>
       </c>
     </row>
     <row r="40" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="b">
+      <c r="A40" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="11">
         <v>1</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="11">
         <v>0</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="19" t="s">
+      <c r="E40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="11">
         <v>3.4615384615384599</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="11">
         <v>0</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="11">
         <v>0.28888888888888797</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="11">
         <v>0</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="11">
         <v>5</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="11">
         <v>4</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="11">
         <v>0.87692307692307703</v>
       </c>
-      <c r="R40" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S40" s="13" t="s">
+      <c r="R40" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S40" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="T40" s="13" t="s">
+      <c r="T40" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="U40" s="13" t="s">
+      <c r="U40" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13" t="s">
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AA40" s="13">
+      <c r="AA40" s="11">
         <v>1.0602100000000001</v>
       </c>
-      <c r="AB40" s="13">
+      <c r="AB40" s="11">
         <v>1.5847770000000001</v>
       </c>
-      <c r="AC40" s="13">
+      <c r="AC40" s="11">
         <v>1.521423</v>
       </c>
-      <c r="AD40" s="13">
+      <c r="AD40" s="11">
         <v>1.1213</v>
       </c>
-      <c r="AE40" s="13">
+      <c r="AE40" s="11">
         <v>4.649089</v>
       </c>
-      <c r="AF40" s="13">
+      <c r="AF40" s="11">
         <v>1.131321</v>
       </c>
-      <c r="AG40" s="13">
+      <c r="AG40" s="11">
         <v>1.736354</v>
       </c>
-      <c r="AH40" s="13">
+      <c r="AH40" s="11">
         <v>1.6218649999999999</v>
       </c>
-      <c r="AI40" s="13">
+      <c r="AI40" s="11">
         <v>1.461957</v>
       </c>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13">
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="b">
+      <c r="A41" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="11">
         <v>1</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="11">
         <v>0</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="19" t="s">
+      <c r="E41" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="11">
         <v>3.4102564102564101</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="11">
         <v>0</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="11">
         <v>0.29323308270676601</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="11">
         <v>0</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="11">
         <v>5</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="11">
         <v>3</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="Q41" s="11">
         <v>0.87948717948717903</v>
       </c>
-      <c r="R41" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S41" s="13" t="s">
+      <c r="R41" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S41" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="T41" s="13" t="s">
+      <c r="T41" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="U41" s="13" t="s">
+      <c r="U41" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13" t="s">
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="AA41" s="13">
+      <c r="AA41" s="11">
         <v>1.2888850000000001</v>
       </c>
-      <c r="AB41" s="13">
+      <c r="AB41" s="11">
         <v>4.5957160000000004</v>
       </c>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13">
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11">
         <v>0.98734200000000005</v>
       </c>
-      <c r="AF41" s="13">
+      <c r="AF41" s="11">
         <v>2.0505420000000001</v>
       </c>
-      <c r="AG41" s="13">
+      <c r="AG41" s="11">
         <v>0.52873999999999999</v>
       </c>
-      <c r="AH41" s="13">
+      <c r="AH41" s="11">
         <v>0.84417299999999995</v>
       </c>
-      <c r="AI41" s="13">
+      <c r="AI41" s="11">
         <v>3.0292460000000001</v>
       </c>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="13">
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11">
         <v>0.87744599999999995</v>
       </c>
     </row>
@@ -6379,28 +6370,28 @@
     <sortCondition descending="1" ref="C1:C41"/>
   </sortState>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D41">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0.04</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C41">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E41">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",E2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Genes_of_interest_DARKRED_excel.xlsx
+++ b/Genes_of_interest_DARKRED_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fe7511e01eadebe/Academic/R_coding/ResearchProject1/CardiomyopathyGroup2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:40009_{9068CC01-A397-419B-80DE-4D6BD73F7B02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CECBFC46-A982-4BA3-990D-E1A5601EEC45}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:40009_{9068CC01-A397-419B-80DE-4D6BD73F7B02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4191C2F5-AB23-49EC-B49D-86D8BD1A7335}"/>
   <bookViews>
-    <workbookView xWindow="15012" yWindow="1860" windowWidth="22992" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="672" windowWidth="22992" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genes_of_interest_DARKRED" sheetId="1" r:id="rId1"/>
@@ -1958,7 +1958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
